--- a/nodes_source_analyses/energy/energy_biomass_gasification_ccs_hydrogen.converter.xlsx
+++ b/nodes_source_analyses/energy/energy_biomass_gasification_ccs_hydrogen.converter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="19200" windowHeight="23460" tabRatio="762"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -12,12 +12,11 @@
     <sheet name="Research data" sheetId="13" r:id="rId3"/>
     <sheet name="Sources" sheetId="15" r:id="rId4"/>
     <sheet name="Notes" sheetId="20" r:id="rId5"/>
-    <sheet name="Exchange_rates" sheetId="21" r:id="rId6"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="depr_cap">Notes!$E$101</definedName>
@@ -42,7 +41,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -52,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="179">
   <si>
     <t>Source</t>
   </si>
@@ -214,9 +213,6 @@
   </si>
   <si>
     <t>euro/yr</t>
-  </si>
-  <si>
-    <t>This sheet contains currency exchange rates. These are automatically updated from exchange rate files in the same folder. This only works if you open this `&lt;carrier name&gt;.xlsx` workbook using the `carrier_manager.xlsm` document.</t>
   </si>
   <si>
     <t>Exchange rate</t>
@@ -637,6 +633,9 @@
   </si>
   <si>
     <t>energy_biomass_gasification_ccs_hydrogen.converter</t>
+  </si>
+  <si>
+    <t>CCS</t>
   </si>
 </sst>
 </file>
@@ -652,12 +651,19 @@
     <numFmt numFmtId="169" formatCode="0.00000"/>
     <numFmt numFmtId="170" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -947,7 +953,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1153,37 +1159,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1197,746 +1172,747 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="451">
+  <cellStyleXfs count="458">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="451">
+  <cellStyles count="458">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2297,6 +2273,13 @@
     <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="449" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="451" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="453" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="455" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="457" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2479,8 +2462,8 @@
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>965200</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
       <xdr:row>232</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
@@ -2516,8 +2499,8 @@
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1765300</xdr:colOff>
       <xdr:row>107</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
@@ -2554,8 +2537,8 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>901700</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
@@ -2592,8 +2575,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>939800</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>3098800</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
@@ -2668,8 +2651,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>3784600</xdr:colOff>
       <xdr:row>168</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
@@ -2690,6 +2673,44 @@
         <a:xfrm>
           <a:off x="7327900" y="21551900"/>
           <a:ext cx="9855200" cy="10566400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1828800</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="50838100"/>
+          <a:ext cx="9359900" cy="1308100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3263,7 +3284,7 @@
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -3298,7 +3319,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3452,7 +3473,7 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3474,36 +3495,36 @@
       <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="174" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="173"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="176"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="B3" s="174"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="176"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="179"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="174"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="176"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="179"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="177"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="179"/>
+      <c r="B5" s="180"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="182"/>
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
     </row>
@@ -3575,8 +3596,8 @@
     </row>
     <row r="12" spans="1:12" s="26" customFormat="1" ht="16" thickBot="1">
       <c r="B12" s="25"/>
-      <c r="C12" s="166" t="s">
-        <v>68</v>
+      <c r="C12" s="163" t="s">
+        <v>67</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="110">
@@ -3584,20 +3605,20 @@
         <v>2.3493131010688357E-2</v>
       </c>
       <c r="F12" s="39"/>
-      <c r="G12" s="166" t="s">
-        <v>175</v>
+      <c r="G12" s="163" t="s">
+        <v>174</v>
       </c>
       <c r="H12" s="32"/>
-      <c r="I12" s="127" t="s">
-        <v>128</v>
+      <c r="I12" s="125" t="s">
+        <v>127</v>
       </c>
       <c r="J12" s="14"/>
       <c r="L12" s="35"/>
     </row>
     <row r="13" spans="1:12" s="26" customFormat="1" ht="16" thickBot="1">
       <c r="B13" s="25"/>
-      <c r="C13" s="125" t="s">
-        <v>67</v>
+      <c r="C13" s="123" t="s">
+        <v>66</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="110">
@@ -3605,12 +3626,12 @@
         <v>2.9063815713847415E-2</v>
       </c>
       <c r="F13" s="39"/>
-      <c r="G13" s="166" t="s">
-        <v>112</v>
+      <c r="G13" s="163" t="s">
+        <v>111</v>
       </c>
       <c r="H13" s="32"/>
-      <c r="I13" s="127" t="s">
-        <v>128</v>
+      <c r="I13" s="125" t="s">
+        <v>127</v>
       </c>
       <c r="J13" s="14"/>
       <c r="L13" s="35"/>
@@ -3618,8 +3639,8 @@
     <row r="14" spans="1:12" ht="16" thickBot="1">
       <c r="A14" s="26"/>
       <c r="B14" s="25"/>
-      <c r="C14" s="166" t="s">
-        <v>168</v>
+      <c r="C14" s="163" t="s">
+        <v>167</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="110">
@@ -3627,12 +3648,12 @@
         <v>0.9474430532754643</v>
       </c>
       <c r="F14" s="39"/>
-      <c r="G14" s="166" t="s">
-        <v>174</v>
+      <c r="G14" s="163" t="s">
+        <v>173</v>
       </c>
       <c r="H14" s="32"/>
-      <c r="I14" s="127" t="s">
-        <v>128</v>
+      <c r="I14" s="125" t="s">
+        <v>127</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="26"/>
@@ -3640,8 +3661,8 @@
     <row r="15" spans="1:12" ht="16" thickBot="1">
       <c r="A15" s="26"/>
       <c r="B15" s="25"/>
-      <c r="C15" s="125" t="s">
-        <v>66</v>
+      <c r="C15" s="123" t="s">
+        <v>65</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>2</v>
@@ -3651,65 +3672,65 @@
         <v>0.44799999999999995</v>
       </c>
       <c r="F15" s="39"/>
-      <c r="G15" s="125" t="s">
+      <c r="G15" s="123" t="s">
         <v>51</v>
       </c>
       <c r="H15" s="32"/>
-      <c r="I15" s="127" t="s">
-        <v>128</v>
+      <c r="I15" s="125" t="s">
+        <v>127</v>
       </c>
       <c r="J15" s="14"/>
       <c r="K15" s="26"/>
     </row>
     <row r="16" spans="1:12" ht="16" thickBot="1">
-      <c r="A16" s="128"/>
-      <c r="B16" s="129"/>
-      <c r="C16" s="125" t="s">
-        <v>73</v>
+      <c r="A16" s="126"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="123" t="s">
+        <v>72</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E16" s="110">
         <f>'Research data'!H11</f>
         <v>215.78522685185183</v>
       </c>
-      <c r="F16" s="125"/>
-      <c r="G16" s="125" t="s">
-        <v>111</v>
-      </c>
-      <c r="H16" s="125"/>
-      <c r="I16" s="127" t="s">
-        <v>128</v>
-      </c>
-      <c r="J16" s="131"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="123" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="123"/>
+      <c r="I16" s="125" t="s">
+        <v>127</v>
+      </c>
+      <c r="J16" s="129"/>
       <c r="K16" s="36"/>
     </row>
     <row r="17" spans="1:11" ht="16" thickBot="1">
-      <c r="A17" s="128"/>
-      <c r="B17" s="129"/>
-      <c r="C17" s="125" t="s">
-        <v>78</v>
+      <c r="A17" s="126"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="123" t="s">
+        <v>77</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="132">
+      <c r="E17" s="130">
         <v>0</v>
       </c>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="127" t="s">
-        <v>128</v>
-      </c>
-      <c r="J17" s="131"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="125" t="s">
+        <v>127</v>
+      </c>
+      <c r="J17" s="129"/>
       <c r="K17" s="36"/>
     </row>
     <row r="18" spans="1:11" ht="16" thickBot="1">
-      <c r="B18" s="129"/>
-      <c r="C18" s="125" t="s">
-        <v>77</v>
+      <c r="B18" s="127"/>
+      <c r="C18" s="123" t="s">
+        <v>76</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>2</v>
@@ -3718,13 +3739,13 @@
         <f>'Research data'!H12</f>
         <v>0.9</v>
       </c>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="127" t="s">
-        <v>128</v>
-      </c>
-      <c r="J18" s="131"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="125" t="s">
+        <v>127</v>
+      </c>
+      <c r="J18" s="129"/>
     </row>
     <row r="19" spans="1:11">
       <c r="B19" s="40"/>
@@ -3766,8 +3787,8 @@
         <v>6</v>
       </c>
       <c r="H21" s="39"/>
-      <c r="I21" s="127" t="s">
-        <v>128</v>
+      <c r="I21" s="125" t="s">
+        <v>127</v>
       </c>
       <c r="J21" s="97"/>
     </row>
@@ -3788,412 +3809,413 @@
         <v>25</v>
       </c>
       <c r="H22" s="39"/>
-      <c r="I22" s="127" t="s">
-        <v>128</v>
+      <c r="I22" s="125" t="s">
+        <v>127</v>
       </c>
       <c r="J22" s="97"/>
     </row>
     <row r="23" spans="1:11" ht="16" thickBot="1">
-      <c r="B23" s="159"/>
-      <c r="C23" s="160" t="s">
+      <c r="B23" s="156"/>
+      <c r="C23" s="157" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="158" t="s">
         <v>137</v>
-      </c>
-      <c r="D23" s="161" t="s">
-        <v>138</v>
       </c>
       <c r="E23" s="110">
         <f>'Research data'!H24</f>
         <v>1110.9401439266449</v>
       </c>
-      <c r="F23" s="162"/>
-      <c r="G23" s="160" t="s">
-        <v>139</v>
-      </c>
-      <c r="H23" s="162"/>
-      <c r="I23" s="127" t="s">
-        <v>128</v>
-      </c>
-      <c r="J23" s="163"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="157" t="s">
+        <v>138</v>
+      </c>
+      <c r="H23" s="159"/>
+      <c r="I23" s="125" t="s">
+        <v>127</v>
+      </c>
+      <c r="J23" s="160"/>
     </row>
     <row r="24" spans="1:11" ht="16" thickBot="1">
-      <c r="B24" s="159"/>
-      <c r="C24" s="168" t="s">
-        <v>149</v>
-      </c>
-      <c r="D24" s="161" t="s">
-        <v>176</v>
+      <c r="B24" s="156"/>
+      <c r="C24" s="165" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="158" t="s">
+        <v>175</v>
       </c>
       <c r="E24" s="110">
         <f>'Research data'!H25</f>
         <v>7884</v>
       </c>
-      <c r="F24" s="162"/>
-      <c r="G24" s="168" t="s">
-        <v>145</v>
-      </c>
-      <c r="H24" s="162"/>
-      <c r="I24" s="127" t="s">
-        <v>128</v>
-      </c>
-      <c r="J24" s="163"/>
+      <c r="F24" s="159"/>
+      <c r="G24" s="165" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" s="159"/>
+      <c r="I24" s="125" t="s">
+        <v>127</v>
+      </c>
+      <c r="J24" s="160"/>
     </row>
     <row r="25" spans="1:11" ht="16" thickBot="1">
-      <c r="A25" s="165"/>
-      <c r="B25" s="167"/>
-      <c r="C25" s="168" t="s">
-        <v>152</v>
-      </c>
-      <c r="D25" s="161" t="s">
+      <c r="A25" s="162"/>
+      <c r="B25" s="164"/>
+      <c r="C25" s="165" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="158" t="s">
         <v>20</v>
       </c>
       <c r="E25" s="110">
         <f>'Research data'!H26</f>
         <v>88119813.296903461</v>
       </c>
-      <c r="F25" s="168"/>
-      <c r="G25" s="168" t="s">
+      <c r="F25" s="165"/>
+      <c r="G25" s="165" t="s">
+        <v>152</v>
+      </c>
+      <c r="H25" s="165"/>
+      <c r="I25" s="125" t="s">
+        <v>127</v>
+      </c>
+      <c r="J25" s="166"/>
+      <c r="K25" s="162"/>
+    </row>
+    <row r="26" spans="1:11" ht="16" thickBot="1">
+      <c r="A26" s="162"/>
+      <c r="B26" s="164"/>
+      <c r="C26" s="165" t="s">
         <v>153</v>
       </c>
-      <c r="H25" s="168"/>
-      <c r="I25" s="127" t="s">
-        <v>128</v>
-      </c>
-      <c r="J25" s="169"/>
-      <c r="K25" s="165"/>
-    </row>
-    <row r="26" spans="1:11" ht="16" thickBot="1">
-      <c r="A26" s="165"/>
-      <c r="B26" s="167"/>
-      <c r="C26" s="168" t="s">
-        <v>154</v>
-      </c>
-      <c r="D26" s="161" t="s">
+      <c r="D26" s="158" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="110">
         <f>'Research data'!H27</f>
         <v>0</v>
       </c>
-      <c r="F26" s="168"/>
-      <c r="G26" s="168" t="s">
+      <c r="F26" s="165"/>
+      <c r="G26" s="165" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="165"/>
+      <c r="I26" s="125" t="s">
+        <v>127</v>
+      </c>
+      <c r="J26" s="166"/>
+      <c r="K26" s="162"/>
+    </row>
+    <row r="27" spans="1:11" ht="16" thickBot="1">
+      <c r="A27" s="162"/>
+      <c r="B27" s="164"/>
+      <c r="C27" s="165" t="s">
         <v>155</v>
       </c>
-      <c r="H26" s="168"/>
-      <c r="I26" s="127" t="s">
-        <v>128</v>
-      </c>
-      <c r="J26" s="169"/>
-      <c r="K26" s="165"/>
-    </row>
-    <row r="27" spans="1:11" ht="16" thickBot="1">
-      <c r="A27" s="165"/>
-      <c r="B27" s="167"/>
-      <c r="C27" s="168" t="s">
-        <v>156</v>
-      </c>
-      <c r="D27" s="161" t="s">
+      <c r="D27" s="158" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="110">
         <f>'Research data'!H28</f>
         <v>26677047.267759562</v>
       </c>
-      <c r="F27" s="168"/>
-      <c r="G27" s="168" t="s">
+      <c r="F27" s="165"/>
+      <c r="G27" s="165" t="s">
+        <v>156</v>
+      </c>
+      <c r="H27" s="165"/>
+      <c r="I27" s="125" t="s">
+        <v>127</v>
+      </c>
+      <c r="J27" s="166"/>
+      <c r="K27" s="162"/>
+    </row>
+    <row r="28" spans="1:11" ht="16" thickBot="1">
+      <c r="A28" s="162"/>
+      <c r="B28" s="164"/>
+      <c r="C28" s="165" t="s">
         <v>157</v>
       </c>
-      <c r="H27" s="168"/>
-      <c r="I27" s="127" t="s">
-        <v>128</v>
-      </c>
-      <c r="J27" s="169"/>
-      <c r="K27" s="165"/>
-    </row>
-    <row r="28" spans="1:11" ht="16" thickBot="1">
-      <c r="A28" s="165"/>
-      <c r="B28" s="167"/>
-      <c r="C28" s="168" t="s">
-        <v>158</v>
-      </c>
-      <c r="D28" s="161" t="s">
-        <v>138</v>
+      <c r="D28" s="158" t="s">
+        <v>137</v>
       </c>
       <c r="E28" s="110">
         <f>'Research data'!H29</f>
         <v>0</v>
       </c>
-      <c r="F28" s="168"/>
-      <c r="G28" s="166" t="s">
-        <v>159</v>
-      </c>
-      <c r="H28" s="168"/>
-      <c r="I28" s="127" t="s">
-        <v>128</v>
-      </c>
-      <c r="J28" s="169"/>
-      <c r="K28" s="165"/>
+      <c r="F28" s="165"/>
+      <c r="G28" s="163" t="s">
+        <v>158</v>
+      </c>
+      <c r="H28" s="165"/>
+      <c r="I28" s="125" t="s">
+        <v>127</v>
+      </c>
+      <c r="J28" s="166"/>
+      <c r="K28" s="162"/>
     </row>
     <row r="29" spans="1:11" ht="16" thickBot="1">
-      <c r="A29" s="128"/>
-      <c r="B29" s="129"/>
-      <c r="C29" s="125" t="s">
+      <c r="A29" s="126"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="123" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="E29" s="130">
+        <v>0.1</v>
+      </c>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="132">
-        <v>0.1</v>
-      </c>
-      <c r="F29" s="125"/>
-      <c r="G29" s="125" t="s">
+      <c r="H29" s="123"/>
+      <c r="I29" s="125"/>
+      <c r="J29" s="129"/>
+    </row>
+    <row r="30" spans="1:11" ht="16" thickBot="1">
+      <c r="A30" s="126"/>
+      <c r="B30" s="127"/>
+      <c r="C30" s="123" t="s">
         <v>85</v>
       </c>
-      <c r="H29" s="125"/>
-      <c r="I29" s="127"/>
-      <c r="J29" s="131"/>
-    </row>
-    <row r="30" spans="1:11" ht="16" thickBot="1">
-      <c r="A30" s="128"/>
-      <c r="B30" s="129"/>
-      <c r="C30" s="125" t="s">
+      <c r="D30" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E30" s="132">
+      <c r="E30" s="130">
         <v>1</v>
       </c>
-      <c r="F30" s="125"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="127"/>
-      <c r="J30" s="131"/>
+      <c r="F30" s="123"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="125"/>
+      <c r="J30" s="129"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="128"/>
-      <c r="B31" s="129"/>
-      <c r="C31" s="125"/>
+      <c r="A31" s="126"/>
+      <c r="B31" s="127"/>
+      <c r="C31" s="123"/>
       <c r="D31" s="23"/>
-      <c r="E31" s="135"/>
-      <c r="F31" s="125"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="133"/>
-      <c r="J31" s="131"/>
+      <c r="E31" s="133"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="129"/>
     </row>
     <row r="32" spans="1:11" ht="16" thickBot="1">
-      <c r="A32" s="128"/>
-      <c r="B32" s="129"/>
+      <c r="A32" s="126"/>
+      <c r="B32" s="127"/>
       <c r="C32" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="98"/>
-      <c r="E32" s="135"/>
-      <c r="F32" s="133"/>
-      <c r="H32" s="133"/>
-      <c r="I32" s="133"/>
-      <c r="J32" s="131"/>
+      <c r="E32" s="133"/>
+      <c r="F32" s="131"/>
+      <c r="H32" s="131"/>
+      <c r="I32" s="131"/>
+      <c r="J32" s="129"/>
     </row>
     <row r="33" spans="1:10" ht="16" thickBot="1">
-      <c r="A33" s="128"/>
-      <c r="B33" s="129"/>
-      <c r="C33" s="125" t="s">
+      <c r="A33" s="126"/>
+      <c r="B33" s="127"/>
+      <c r="C33" s="123" t="s">
         <v>24</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E33" s="132">
+      <c r="E33" s="130">
         <f>'Research data'!H34</f>
         <v>40</v>
       </c>
-      <c r="F33" s="125"/>
-      <c r="G33" s="125" t="s">
-        <v>92</v>
-      </c>
-      <c r="H33" s="125"/>
-      <c r="I33" s="127" t="s">
-        <v>128</v>
-      </c>
-      <c r="J33" s="131"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="123" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" s="123"/>
+      <c r="I33" s="125" t="s">
+        <v>127</v>
+      </c>
+      <c r="J33" s="129"/>
     </row>
     <row r="34" spans="1:10" ht="16" thickBot="1">
-      <c r="A34" s="128"/>
-      <c r="B34" s="129"/>
-      <c r="C34" s="125" t="s">
-        <v>90</v>
+      <c r="A34" s="126"/>
+      <c r="B34" s="127"/>
+      <c r="C34" s="123" t="s">
+        <v>89</v>
       </c>
       <c r="D34" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E34" s="132">
+      <c r="E34" s="130">
         <f>'Research data'!H35</f>
         <v>3</v>
       </c>
-      <c r="F34" s="125"/>
-      <c r="G34" s="125" t="s">
-        <v>91</v>
-      </c>
-      <c r="H34" s="125"/>
-      <c r="I34" s="127" t="s">
-        <v>128</v>
-      </c>
-      <c r="J34" s="131"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="123" t="s">
+        <v>90</v>
+      </c>
+      <c r="H34" s="123"/>
+      <c r="I34" s="125" t="s">
+        <v>127</v>
+      </c>
+      <c r="J34" s="129"/>
     </row>
     <row r="35" spans="1:10" ht="16" thickBot="1">
-      <c r="A35" s="128"/>
-      <c r="B35" s="129"/>
-      <c r="C35" s="125" t="s">
+      <c r="A35" s="126"/>
+      <c r="B35" s="127"/>
+      <c r="C35" s="123" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="D35" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" s="153">
+      <c r="E35" s="150">
         <f>'Research data'!H36</f>
         <v>0.20234300000000002</v>
       </c>
-      <c r="F35" s="125"/>
-      <c r="G35" s="125" t="s">
-        <v>98</v>
-      </c>
-      <c r="H35" s="125"/>
-      <c r="I35" s="127" t="s">
-        <v>128</v>
-      </c>
-      <c r="J35" s="131"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="123" t="s">
+        <v>97</v>
+      </c>
+      <c r="H35" s="123"/>
+      <c r="I35" s="125" t="s">
+        <v>127</v>
+      </c>
+      <c r="J35" s="129"/>
     </row>
     <row r="36" spans="1:10" ht="16" thickBot="1">
-      <c r="A36" s="128"/>
-      <c r="B36" s="129"/>
-      <c r="C36" s="125" t="s">
+      <c r="A36" s="126"/>
+      <c r="B36" s="127"/>
+      <c r="C36" s="123" t="s">
         <v>21</v>
       </c>
       <c r="D36" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="132">
-        <v>0</v>
-      </c>
-      <c r="F36" s="125"/>
-      <c r="G36" s="125"/>
-      <c r="H36" s="125"/>
-      <c r="I36" s="127"/>
-      <c r="J36" s="131"/>
+      <c r="E36" s="128">
+        <f>'Research data'!H37</f>
+        <v>0.9</v>
+      </c>
+      <c r="F36" s="123"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="123"/>
+      <c r="I36" s="125"/>
+      <c r="J36" s="129"/>
     </row>
     <row r="37" spans="1:10" ht="16" thickBot="1">
-      <c r="A37" s="128"/>
-      <c r="B37" s="136"/>
-      <c r="C37" s="137"/>
-      <c r="D37" s="137"/>
-      <c r="E37" s="137"/>
-      <c r="F37" s="137"/>
-      <c r="G37" s="137"/>
-      <c r="H37" s="137"/>
-      <c r="I37" s="137"/>
-      <c r="J37" s="138"/>
+      <c r="A37" s="126"/>
+      <c r="B37" s="134"/>
+      <c r="C37" s="135"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="135"/>
+      <c r="F37" s="135"/>
+      <c r="G37" s="135"/>
+      <c r="H37" s="135"/>
+      <c r="I37" s="135"/>
+      <c r="J37" s="136"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="128"/>
-      <c r="B38" s="128"/>
-      <c r="C38" s="128"/>
-      <c r="D38" s="128"/>
-      <c r="E38" s="128"/>
-      <c r="F38" s="128"/>
-      <c r="G38" s="128"/>
-      <c r="H38" s="128"/>
-      <c r="I38" s="128"/>
-      <c r="J38" s="128"/>
+      <c r="A38" s="126"/>
+      <c r="B38" s="126"/>
+      <c r="C38" s="126"/>
+      <c r="D38" s="126"/>
+      <c r="E38" s="126"/>
+      <c r="F38" s="126"/>
+      <c r="G38" s="126"/>
+      <c r="H38" s="126"/>
+      <c r="I38" s="126"/>
+      <c r="J38" s="126"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="128"/>
-      <c r="B39" s="128"/>
-      <c r="C39" s="128"/>
-      <c r="D39" s="128"/>
-      <c r="E39" s="128"/>
-      <c r="F39" s="128"/>
-      <c r="G39" s="128"/>
-      <c r="H39" s="128"/>
-      <c r="I39" s="128"/>
-      <c r="J39" s="128"/>
+      <c r="A39" s="126"/>
+      <c r="B39" s="126"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="126"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="126"/>
+      <c r="G39" s="126"/>
+      <c r="H39" s="126"/>
+      <c r="I39" s="126"/>
+      <c r="J39" s="126"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="128"/>
-      <c r="B40" s="128"/>
-      <c r="C40" s="128"/>
-      <c r="D40" s="128"/>
-      <c r="E40" s="128"/>
-      <c r="F40" s="128"/>
-      <c r="G40" s="128"/>
-      <c r="H40" s="128"/>
-      <c r="I40" s="128"/>
-      <c r="J40" s="128"/>
+      <c r="A40" s="126"/>
+      <c r="B40" s="126"/>
+      <c r="C40" s="126"/>
+      <c r="D40" s="126"/>
+      <c r="E40" s="126"/>
+      <c r="F40" s="126"/>
+      <c r="G40" s="126"/>
+      <c r="H40" s="126"/>
+      <c r="I40" s="126"/>
+      <c r="J40" s="126"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="128"/>
-      <c r="B41" s="128"/>
-      <c r="E41" s="128"/>
-      <c r="F41" s="128"/>
-      <c r="G41" s="128"/>
-      <c r="H41" s="128"/>
-      <c r="I41" s="128"/>
-      <c r="J41" s="128"/>
+      <c r="A41" s="126"/>
+      <c r="B41" s="126"/>
+      <c r="E41" s="126"/>
+      <c r="F41" s="126"/>
+      <c r="G41" s="126"/>
+      <c r="H41" s="126"/>
+      <c r="I41" s="126"/>
+      <c r="J41" s="126"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="128"/>
-      <c r="B42" s="128"/>
-      <c r="C42" s="128"/>
-      <c r="D42" s="128"/>
-      <c r="E42" s="128"/>
-      <c r="F42" s="128"/>
-      <c r="G42" s="128"/>
-      <c r="H42" s="128"/>
-      <c r="I42" s="128"/>
-      <c r="J42" s="128"/>
+      <c r="A42" s="126"/>
+      <c r="B42" s="126"/>
+      <c r="C42" s="126"/>
+      <c r="D42" s="126"/>
+      <c r="E42" s="126"/>
+      <c r="F42" s="126"/>
+      <c r="G42" s="126"/>
+      <c r="H42" s="126"/>
+      <c r="I42" s="126"/>
+      <c r="J42" s="126"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="128"/>
-      <c r="B43" s="128"/>
-      <c r="C43" s="128"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="128"/>
-      <c r="F43" s="128"/>
-      <c r="G43" s="128"/>
-      <c r="H43" s="128"/>
-      <c r="I43" s="128"/>
-      <c r="J43" s="128"/>
+      <c r="A43" s="126"/>
+      <c r="B43" s="126"/>
+      <c r="C43" s="126"/>
+      <c r="D43" s="126"/>
+      <c r="E43" s="126"/>
+      <c r="F43" s="126"/>
+      <c r="G43" s="126"/>
+      <c r="H43" s="126"/>
+      <c r="I43" s="126"/>
+      <c r="J43" s="126"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="128"/>
-      <c r="B44" s="128"/>
-      <c r="C44" s="128"/>
-      <c r="D44" s="128"/>
-      <c r="E44" s="128"/>
-      <c r="F44" s="128"/>
-      <c r="G44" s="128"/>
-      <c r="H44" s="128"/>
-      <c r="I44" s="128"/>
-      <c r="J44" s="128"/>
+      <c r="A44" s="126"/>
+      <c r="B44" s="126"/>
+      <c r="C44" s="126"/>
+      <c r="D44" s="126"/>
+      <c r="E44" s="126"/>
+      <c r="F44" s="126"/>
+      <c r="G44" s="126"/>
+      <c r="H44" s="126"/>
+      <c r="I44" s="126"/>
+      <c r="J44" s="126"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="128"/>
-      <c r="B45" s="128"/>
-      <c r="C45" s="128"/>
-      <c r="D45" s="128"/>
-      <c r="E45" s="128"/>
-      <c r="F45" s="128"/>
-      <c r="G45" s="128"/>
-      <c r="H45" s="128"/>
-      <c r="I45" s="128"/>
-      <c r="J45" s="128"/>
+      <c r="A45" s="126"/>
+      <c r="B45" s="126"/>
+      <c r="C45" s="126"/>
+      <c r="D45" s="126"/>
+      <c r="E45" s="126"/>
+      <c r="F45" s="126"/>
+      <c r="G45" s="126"/>
+      <c r="H45" s="126"/>
+      <c r="I45" s="126"/>
+      <c r="J45" s="126"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="128"/>
+      <c r="A46" s="126"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="128"/>
+      <c r="A47" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4248,8 +4270,8 @@
   </sheetPr>
   <dimension ref="A2:T42"/>
   <sheetViews>
-    <sheetView topLeftCell="H4" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4315,15 +4337,15 @@
       </c>
       <c r="I4" s="94"/>
       <c r="J4" s="94" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K4" s="94"/>
       <c r="L4" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M4" s="94"/>
       <c r="N4" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O4" s="94"/>
       <c r="P4" s="94"/>
@@ -4369,8 +4391,8 @@
     </row>
     <row r="7" spans="1:20" ht="16" thickBot="1">
       <c r="B7" s="45"/>
-      <c r="C7" s="126" t="s">
-        <v>68</v>
+      <c r="C7" s="124" t="s">
+        <v>67</v>
       </c>
       <c r="D7" s="53"/>
       <c r="E7" s="53"/>
@@ -4391,12 +4413,12 @@
       <c r="N7" s="56"/>
       <c r="O7" s="46"/>
       <c r="P7" s="46"/>
-      <c r="Q7" s="124"/>
+      <c r="Q7" s="122"/>
     </row>
     <row r="8" spans="1:20" ht="16" thickBot="1">
       <c r="B8" s="45"/>
-      <c r="C8" s="126" t="s">
-        <v>67</v>
+      <c r="C8" s="124" t="s">
+        <v>66</v>
       </c>
       <c r="D8" s="53"/>
       <c r="E8" s="53"/>
@@ -4417,12 +4439,12 @@
       <c r="N8" s="56"/>
       <c r="O8" s="46"/>
       <c r="P8" s="46"/>
-      <c r="Q8" s="124"/>
+      <c r="Q8" s="122"/>
     </row>
     <row r="9" spans="1:20" ht="16" thickBot="1">
       <c r="B9" s="45"/>
-      <c r="C9" s="164" t="s">
-        <v>168</v>
+      <c r="C9" s="161" t="s">
+        <v>167</v>
       </c>
       <c r="D9" s="53"/>
       <c r="E9" s="53"/>
@@ -4443,12 +4465,12 @@
       <c r="N9" s="56"/>
       <c r="O9" s="46"/>
       <c r="P9" s="46"/>
-      <c r="Q9" s="124"/>
+      <c r="Q9" s="122"/>
     </row>
     <row r="10" spans="1:20" ht="16" thickBot="1">
       <c r="B10" s="45"/>
-      <c r="C10" s="126" t="s">
-        <v>66</v>
+      <c r="C10" s="124" t="s">
+        <v>65</v>
       </c>
       <c r="D10" s="53"/>
       <c r="E10" s="53"/>
@@ -4471,17 +4493,17 @@
       <c r="N10" s="56"/>
       <c r="O10" s="46"/>
       <c r="P10" s="46"/>
-      <c r="Q10" s="124"/>
+      <c r="Q10" s="122"/>
     </row>
     <row r="11" spans="1:20" ht="16" thickBot="1">
       <c r="B11" s="45"/>
-      <c r="C11" s="126" t="s">
-        <v>73</v>
+      <c r="C11" s="124" t="s">
+        <v>72</v>
       </c>
       <c r="D11" s="53"/>
       <c r="E11" s="53"/>
-      <c r="F11" s="140" t="s">
-        <v>72</v>
+      <c r="F11" s="138" t="s">
+        <v>71</v>
       </c>
       <c r="G11" s="95"/>
       <c r="H11" s="109">
@@ -4498,13 +4520,13 @@
       <c r="N11" s="56"/>
       <c r="O11" s="46"/>
       <c r="P11" s="46"/>
-      <c r="Q11" s="124"/>
+      <c r="Q11" s="122"/>
     </row>
     <row r="12" spans="1:20" ht="16" thickBot="1">
-      <c r="A12" s="128"/>
-      <c r="B12" s="129"/>
-      <c r="C12" s="125" t="s">
-        <v>77</v>
+      <c r="A12" s="126"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="123" t="s">
+        <v>76</v>
       </c>
       <c r="D12" s="53"/>
       <c r="E12" s="53"/>
@@ -4512,29 +4534,29 @@
         <v>2</v>
       </c>
       <c r="G12" s="95"/>
-      <c r="H12" s="130">
+      <c r="H12" s="128">
         <f>N12</f>
         <v>0.9</v>
       </c>
-      <c r="I12" s="125"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="128"/>
-      <c r="L12" s="128"/>
-      <c r="M12" s="128"/>
-      <c r="N12" s="146">
+      <c r="I12" s="123"/>
+      <c r="J12" s="126"/>
+      <c r="K12" s="126"/>
+      <c r="L12" s="126"/>
+      <c r="M12" s="126"/>
+      <c r="N12" s="144">
         <f>Notes!E66</f>
         <v>0.9</v>
       </c>
-      <c r="O12" s="128"/>
-      <c r="P12" s="128"/>
-      <c r="Q12" s="128"/>
-      <c r="R12" s="128"/>
+      <c r="O12" s="126"/>
+      <c r="P12" s="126"/>
+      <c r="Q12" s="126"/>
+      <c r="R12" s="126"/>
     </row>
     <row r="13" spans="1:20" ht="16" thickBot="1">
-      <c r="A13" s="128"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="156" t="s">
-        <v>78</v>
+      <c r="A13" s="126"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="153" t="s">
+        <v>77</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -4542,100 +4564,100 @@
         <v>2</v>
       </c>
       <c r="G13" s="11"/>
-      <c r="H13" s="132">
+      <c r="H13" s="130">
         <v>0</v>
       </c>
-      <c r="I13" s="125"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="128"/>
-      <c r="M13" s="128"/>
-      <c r="N13" s="128"/>
-      <c r="O13" s="128"/>
-      <c r="P13" s="128"/>
-      <c r="Q13" s="128"/>
-      <c r="R13" s="128"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="126"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="126"/>
+      <c r="N13" s="126"/>
+      <c r="O13" s="126"/>
+      <c r="P13" s="126"/>
+      <c r="Q13" s="126"/>
+      <c r="R13" s="126"/>
     </row>
     <row r="14" spans="1:20" ht="16" thickBot="1">
-      <c r="A14" s="128"/>
-      <c r="B14" s="129"/>
-      <c r="C14" s="156" t="s">
-        <v>79</v>
+      <c r="A14" s="126"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="153" t="s">
+        <v>78</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
       <c r="F14" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="127">
+      <c r="H14" s="125">
         <v>0.1</v>
       </c>
-      <c r="I14" s="125"/>
-      <c r="J14" s="128"/>
-      <c r="K14" s="128"/>
-      <c r="L14" s="128"/>
-      <c r="M14" s="128"/>
-      <c r="N14" s="128"/>
-      <c r="O14" s="128"/>
-      <c r="P14" s="128"/>
-      <c r="Q14" s="128"/>
-      <c r="R14" s="128"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="126"/>
+      <c r="K14" s="126"/>
+      <c r="L14" s="126"/>
+      <c r="M14" s="126"/>
+      <c r="N14" s="126"/>
+      <c r="O14" s="126"/>
+      <c r="P14" s="126"/>
+      <c r="Q14" s="126"/>
+      <c r="R14" s="126"/>
     </row>
     <row r="15" spans="1:20" ht="16" thickBot="1">
-      <c r="A15" s="128"/>
-      <c r="B15" s="129"/>
-      <c r="C15" s="156" t="s">
-        <v>80</v>
+      <c r="A15" s="126"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="153" t="s">
+        <v>79</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="34"/>
       <c r="F15" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H15" s="127">
+      <c r="H15" s="125">
         <v>0.7</v>
       </c>
-      <c r="I15" s="125"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="128"/>
-      <c r="L15" s="128"/>
-      <c r="M15" s="128"/>
-      <c r="N15" s="128"/>
-      <c r="O15" s="128"/>
-      <c r="P15" s="128"/>
-      <c r="Q15" s="128"/>
-      <c r="R15" s="128"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="126"/>
+      <c r="K15" s="126"/>
+      <c r="L15" s="126"/>
+      <c r="M15" s="126"/>
+      <c r="N15" s="126"/>
+      <c r="O15" s="126"/>
+      <c r="P15" s="126"/>
+      <c r="Q15" s="126"/>
+      <c r="R15" s="126"/>
     </row>
     <row r="16" spans="1:20" ht="16" thickBot="1">
-      <c r="A16" s="128"/>
-      <c r="B16" s="129"/>
-      <c r="C16" s="156" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
+      <c r="A16" s="126"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="153" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
       <c r="F16" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="130">
+      <c r="H16" s="128">
         <v>65.369349100926101</v>
       </c>
-      <c r="I16" s="125"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="128"/>
-      <c r="L16" s="128"/>
-      <c r="M16" s="128"/>
-      <c r="N16" s="128"/>
-      <c r="O16" s="128"/>
-      <c r="P16" s="128"/>
-      <c r="Q16" s="128"/>
-      <c r="R16" s="128"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="126"/>
+      <c r="K16" s="126"/>
+      <c r="L16" s="126"/>
+      <c r="M16" s="126"/>
+      <c r="N16" s="126"/>
+      <c r="O16" s="126"/>
+      <c r="P16" s="126"/>
+      <c r="Q16" s="126"/>
+      <c r="R16" s="126"/>
     </row>
     <row r="17" spans="1:17">
       <c r="B17" s="45"/>
       <c r="C17" s="53"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="126"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
       <c r="F17" s="48"/>
       <c r="H17" s="56"/>
       <c r="I17" s="50"/>
@@ -4649,22 +4671,22 @@
       <c r="Q17" s="58"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="128"/>
-      <c r="B18" s="129"/>
+      <c r="A18" s="126"/>
+      <c r="B18" s="127"/>
       <c r="C18" s="34"/>
       <c r="F18" s="34"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="143"/>
-      <c r="K18" s="143"/>
-      <c r="L18" s="143"/>
-      <c r="M18" s="142"/>
+      <c r="I18" s="141"/>
+      <c r="J18" s="141"/>
+      <c r="K18" s="141"/>
+      <c r="L18" s="141"/>
+      <c r="M18" s="140"/>
       <c r="P18" s="46"/>
       <c r="Q18" s="57"/>
     </row>
     <row r="19" spans="1:17" ht="16" thickBot="1">
-      <c r="A19" s="128"/>
-      <c r="B19" s="129"/>
+      <c r="A19" s="126"/>
+      <c r="B19" s="127"/>
       <c r="C19" s="12" t="s">
         <v>43</v>
       </c>
@@ -4674,299 +4696,299 @@
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
-      <c r="M19" s="142"/>
+      <c r="M19" s="140"/>
       <c r="P19" s="50"/>
-      <c r="Q19" s="124"/>
+      <c r="Q19" s="122"/>
     </row>
     <row r="20" spans="1:17" ht="16" thickBot="1">
-      <c r="A20" s="128"/>
-      <c r="B20" s="129"/>
-      <c r="C20" s="145" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="139"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="145" t="s">
+      <c r="A20" s="126"/>
+      <c r="B20" s="127"/>
+      <c r="C20" s="143" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="137"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="141">
+      <c r="H20" s="139">
         <f>N20</f>
         <v>144005991.80327868</v>
       </c>
-      <c r="I20" s="142"/>
-      <c r="J20" s="142"/>
-      <c r="K20" s="142"/>
-      <c r="L20" s="143"/>
-      <c r="M20" s="142"/>
-      <c r="N20" s="146">
+      <c r="I20" s="140"/>
+      <c r="J20" s="140"/>
+      <c r="K20" s="140"/>
+      <c r="L20" s="141"/>
+      <c r="M20" s="140"/>
+      <c r="N20" s="144">
         <f>Notes!E142</f>
         <v>144005991.80327868</v>
       </c>
       <c r="P20" s="50"/>
-      <c r="Q20" s="124"/>
+      <c r="Q20" s="122"/>
     </row>
     <row r="21" spans="1:17" ht="16" thickBot="1">
-      <c r="A21" s="128"/>
-      <c r="B21" s="129"/>
-      <c r="C21" s="145" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="147" t="s">
+      <c r="A21" s="126"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="143" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="145" t="s">
         <v>53</v>
       </c>
-      <c r="H21" s="141">
+      <c r="H21" s="139">
         <f>N21</f>
         <v>9516558.2877959926</v>
       </c>
-      <c r="J21" s="142"/>
-      <c r="L21" s="142"/>
-      <c r="M21" s="142"/>
-      <c r="N21" s="146">
+      <c r="J21" s="140"/>
+      <c r="L21" s="140"/>
+      <c r="M21" s="140"/>
+      <c r="N21" s="144">
         <f>Notes!E164</f>
         <v>9516558.2877959926</v>
       </c>
-      <c r="Q21" s="150" t="s">
-        <v>117</v>
+      <c r="Q21" s="148" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="16" thickBot="1">
-      <c r="A22" s="128"/>
-      <c r="B22" s="129"/>
-      <c r="C22" s="145" t="s">
-        <v>102</v>
-      </c>
-      <c r="F22" s="147" t="s">
+      <c r="A22" s="126"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="143" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="157">
+      <c r="H22" s="154">
         <f>N22</f>
         <v>8758652.0947176684</v>
       </c>
-      <c r="J22" s="142"/>
-      <c r="L22" s="142"/>
-      <c r="M22" s="142"/>
-      <c r="N22" s="146">
+      <c r="J22" s="140"/>
+      <c r="L22" s="140"/>
+      <c r="M22" s="140"/>
+      <c r="N22" s="144">
         <f>Notes!E215</f>
         <v>8758652.0947176684</v>
       </c>
-      <c r="Q22" s="150" t="s">
-        <v>117</v>
+      <c r="Q22" s="148" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="16" thickBot="1">
-      <c r="A23" s="128"/>
-      <c r="B23" s="129"/>
-      <c r="C23" s="145" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23" s="140" t="s">
-        <v>64</v>
-      </c>
-      <c r="H23" s="158">
+      <c r="A23" s="126"/>
+      <c r="B23" s="127"/>
+      <c r="C23" s="143" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="138" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="155">
         <f>N23</f>
         <v>1.4301001459934731E-3</v>
       </c>
-      <c r="J23" s="142"/>
-      <c r="L23" s="142"/>
-      <c r="M23" s="134"/>
-      <c r="N23" s="157">
+      <c r="J23" s="140"/>
+      <c r="L23" s="140"/>
+      <c r="M23" s="132"/>
+      <c r="N23" s="154">
         <f>Notes!E218</f>
         <v>1.4301001459934731E-3</v>
       </c>
-      <c r="Q23" s="150" t="s">
-        <v>117</v>
+      <c r="Q23" s="148" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="16" thickBot="1">
-      <c r="A24" s="128"/>
-      <c r="B24" s="129"/>
-      <c r="C24" s="145" t="s">
-        <v>102</v>
-      </c>
-      <c r="F24" s="140" t="s">
-        <v>82</v>
-      </c>
-      <c r="H24" s="157">
+      <c r="A24" s="126"/>
+      <c r="B24" s="127"/>
+      <c r="C24" s="143" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="138" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="154">
         <f>Notes!E219</f>
         <v>1110.9401439266449</v>
       </c>
-      <c r="J24" s="143"/>
-      <c r="L24" s="143"/>
-      <c r="M24" s="134"/>
-      <c r="N24" s="157">
+      <c r="J24" s="141"/>
+      <c r="L24" s="141"/>
+      <c r="M24" s="132"/>
+      <c r="N24" s="154">
         <f>Notes!E219</f>
         <v>1110.9401439266449</v>
       </c>
-      <c r="Q24" s="150" t="s">
-        <v>117</v>
+      <c r="Q24" s="148" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="16" thickBot="1">
-      <c r="A25" s="128"/>
-      <c r="B25" s="129"/>
-      <c r="C25" s="125" t="s">
+      <c r="A25" s="126"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="123" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="123" t="s">
         <v>103</v>
       </c>
-      <c r="F25" s="125" t="s">
-        <v>104</v>
-      </c>
-      <c r="H25" s="146">
+      <c r="H25" s="144">
         <f>N25</f>
         <v>7884</v>
       </c>
-      <c r="I25" s="134"/>
-      <c r="J25" s="134"/>
-      <c r="K25" s="134"/>
-      <c r="L25" s="134"/>
-      <c r="M25" s="134"/>
-      <c r="N25" s="146">
+      <c r="I25" s="132"/>
+      <c r="J25" s="132"/>
+      <c r="K25" s="132"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="132"/>
+      <c r="N25" s="144">
         <f>Notes!E67</f>
         <v>7884</v>
       </c>
       <c r="Q25" s="58"/>
     </row>
     <row r="26" spans="1:17" ht="16" thickBot="1">
-      <c r="A26" s="128"/>
-      <c r="B26" s="129"/>
-      <c r="C26" s="166" t="s">
-        <v>152</v>
-      </c>
-      <c r="F26" s="166" t="s">
+      <c r="A26" s="126"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="163" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="146">
+      <c r="H26" s="144">
         <f t="shared" ref="H26:H30" si="0">N26</f>
         <v>88119813.296903461</v>
       </c>
-      <c r="I26" s="134"/>
-      <c r="J26" s="134"/>
-      <c r="K26" s="134"/>
-      <c r="L26" s="134"/>
-      <c r="M26" s="134"/>
-      <c r="N26" s="146">
+      <c r="I26" s="132"/>
+      <c r="J26" s="132"/>
+      <c r="K26" s="132"/>
+      <c r="L26" s="132"/>
+      <c r="M26" s="132"/>
+      <c r="N26" s="144">
         <f>Notes!E243</f>
         <v>88119813.296903461</v>
       </c>
       <c r="Q26" s="58"/>
     </row>
     <row r="27" spans="1:17" ht="16" thickBot="1">
-      <c r="A27" s="128"/>
-      <c r="B27" s="129"/>
-      <c r="C27" s="166" t="s">
-        <v>154</v>
-      </c>
-      <c r="F27" s="166" t="s">
+      <c r="A27" s="126"/>
+      <c r="B27" s="127"/>
+      <c r="C27" s="163" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="146">
+      <c r="H27" s="144">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I27" s="134"/>
-      <c r="J27" s="134"/>
-      <c r="K27" s="134"/>
-      <c r="L27" s="134"/>
-      <c r="M27" s="134"/>
-      <c r="N27" s="146">
+      <c r="I27" s="132"/>
+      <c r="J27" s="132"/>
+      <c r="K27" s="132"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="144">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="170" t="s">
-        <v>166</v>
+      <c r="Q27" s="167" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="16" thickBot="1">
-      <c r="A28" s="128"/>
-      <c r="B28" s="129"/>
-      <c r="C28" s="166" t="s">
-        <v>160</v>
-      </c>
-      <c r="F28" s="166" t="s">
+      <c r="A28" s="126"/>
+      <c r="B28" s="127"/>
+      <c r="C28" s="163" t="s">
+        <v>159</v>
+      </c>
+      <c r="F28" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="146">
+      <c r="H28" s="144">
         <f t="shared" si="0"/>
         <v>26677047.267759562</v>
       </c>
-      <c r="I28" s="134"/>
-      <c r="J28" s="134"/>
-      <c r="K28" s="134"/>
-      <c r="L28" s="134"/>
-      <c r="M28" s="134"/>
-      <c r="N28" s="146">
+      <c r="I28" s="132"/>
+      <c r="J28" s="132"/>
+      <c r="K28" s="132"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="132"/>
+      <c r="N28" s="144">
         <f>Notes!E131</f>
         <v>26677047.267759562</v>
       </c>
       <c r="Q28" s="58"/>
     </row>
     <row r="29" spans="1:17" ht="16" thickBot="1">
-      <c r="A29" s="128"/>
-      <c r="B29" s="129"/>
-      <c r="C29" s="168" t="s">
-        <v>158</v>
-      </c>
-      <c r="F29" s="166" t="s">
-        <v>138</v>
-      </c>
-      <c r="H29" s="146">
+      <c r="A29" s="126"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="165" t="s">
+        <v>157</v>
+      </c>
+      <c r="F29" s="163" t="s">
+        <v>137</v>
+      </c>
+      <c r="H29" s="144">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I29" s="134"/>
-      <c r="J29" s="134"/>
-      <c r="K29" s="134"/>
-      <c r="L29" s="134"/>
-      <c r="M29" s="134"/>
-      <c r="N29" s="146">
+      <c r="I29" s="132"/>
+      <c r="J29" s="132"/>
+      <c r="K29" s="132"/>
+      <c r="L29" s="132"/>
+      <c r="M29" s="132"/>
+      <c r="N29" s="144">
         <v>0</v>
       </c>
-      <c r="Q29" s="170" t="s">
-        <v>167</v>
+      <c r="Q29" s="167" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="16" thickBot="1">
-      <c r="A30" s="128"/>
-      <c r="B30" s="129"/>
-      <c r="C30" s="166" t="s">
-        <v>161</v>
-      </c>
-      <c r="F30" s="166" t="s">
+      <c r="A30" s="126"/>
+      <c r="B30" s="127"/>
+      <c r="C30" s="163" t="s">
+        <v>160</v>
+      </c>
+      <c r="F30" s="163" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="146">
+      <c r="H30" s="144">
         <f t="shared" si="0"/>
         <v>2623652.0947176684</v>
       </c>
-      <c r="I30" s="134"/>
-      <c r="J30" s="134"/>
-      <c r="K30" s="134"/>
-      <c r="L30" s="134"/>
-      <c r="M30" s="134"/>
-      <c r="N30" s="146">
+      <c r="I30" s="132"/>
+      <c r="J30" s="132"/>
+      <c r="K30" s="132"/>
+      <c r="L30" s="132"/>
+      <c r="M30" s="132"/>
+      <c r="N30" s="144">
         <f>Notes!E258</f>
         <v>2623652.0947176684</v>
       </c>
       <c r="Q30" s="58"/>
     </row>
     <row r="31" spans="1:17" ht="16" thickBot="1">
-      <c r="A31" s="128"/>
-      <c r="B31" s="129"/>
-      <c r="C31" s="166" t="s">
-        <v>162</v>
-      </c>
-      <c r="F31" s="166" t="s">
+      <c r="A31" s="126"/>
+      <c r="B31" s="127"/>
+      <c r="C31" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="F31" s="163" t="s">
         <v>53</v>
       </c>
-      <c r="H31" s="146">
+      <c r="H31" s="144">
         <f>H30+H21</f>
         <v>12140210.382513661</v>
       </c>
-      <c r="I31" s="134"/>
-      <c r="J31" s="134"/>
-      <c r="K31" s="134"/>
-      <c r="L31" s="134"/>
-      <c r="M31" s="134"/>
-      <c r="N31" s="146"/>
+      <c r="I31" s="132"/>
+      <c r="J31" s="132"/>
+      <c r="K31" s="132"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="132"/>
+      <c r="N31" s="144"/>
       <c r="Q31" s="58"/>
     </row>
     <row r="32" spans="1:17">
@@ -4974,8 +4996,8 @@
       <c r="Q32" s="49"/>
     </row>
     <row r="33" spans="1:17" ht="16" thickBot="1">
-      <c r="A33" s="128"/>
-      <c r="B33" s="129"/>
+      <c r="A33" s="126"/>
+      <c r="B33" s="127"/>
       <c r="C33" s="34" t="s">
         <v>5</v>
       </c>
@@ -4992,143 +5014,148 @@
       <c r="Q33" s="58"/>
     </row>
     <row r="34" spans="1:17" ht="16" thickBot="1">
-      <c r="A34" s="128"/>
-      <c r="B34" s="129"/>
-      <c r="C34" s="144" t="s">
+      <c r="A34" s="126"/>
+      <c r="B34" s="127"/>
+      <c r="C34" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="F34" s="140" t="s">
+      <c r="F34" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="H34" s="141">
+      <c r="H34" s="139">
         <f>N34</f>
         <v>40</v>
       </c>
-      <c r="I34" s="142"/>
-      <c r="J34" s="142"/>
-      <c r="K34" s="142"/>
-      <c r="L34" s="142"/>
-      <c r="M34" s="143"/>
-      <c r="N34" s="146">
+      <c r="I34" s="140"/>
+      <c r="J34" s="140"/>
+      <c r="K34" s="140"/>
+      <c r="L34" s="140"/>
+      <c r="M34" s="141"/>
+      <c r="N34" s="144">
         <f>Notes!E80</f>
         <v>40</v>
       </c>
       <c r="O34" s="46"/>
       <c r="P34" s="46"/>
-      <c r="Q34" s="150"/>
+      <c r="Q34" s="148"/>
     </row>
     <row r="35" spans="1:17" ht="16" thickBot="1">
-      <c r="A35" s="128"/>
-      <c r="B35" s="129"/>
-      <c r="C35" s="126" t="s">
-        <v>99</v>
-      </c>
-      <c r="F35" s="140" t="s">
+      <c r="A35" s="126"/>
+      <c r="B35" s="127"/>
+      <c r="C35" s="124" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="H35" s="141">
+      <c r="H35" s="139">
         <f t="shared" ref="H35" si="1">N35</f>
         <v>3</v>
       </c>
-      <c r="I35" s="143"/>
-      <c r="J35" s="143"/>
-      <c r="K35" s="143"/>
-      <c r="L35" s="143"/>
-      <c r="M35" s="143"/>
-      <c r="N35" s="146">
+      <c r="I35" s="141"/>
+      <c r="J35" s="141"/>
+      <c r="K35" s="141"/>
+      <c r="L35" s="141"/>
+      <c r="M35" s="141"/>
+      <c r="N35" s="144">
         <f>Notes!E81</f>
         <v>3</v>
       </c>
       <c r="O35" s="46"/>
       <c r="P35" s="46"/>
-      <c r="Q35" s="150"/>
+      <c r="Q35" s="148"/>
     </row>
     <row r="36" spans="1:17" ht="16" thickBot="1">
-      <c r="A36" s="128"/>
-      <c r="B36" s="129"/>
-      <c r="C36" s="139" t="s">
-        <v>98</v>
-      </c>
-      <c r="F36" s="140" t="s">
-        <v>89</v>
-      </c>
-      <c r="H36" s="152">
+      <c r="A36" s="126"/>
+      <c r="B36" s="127"/>
+      <c r="C36" s="137" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="138" t="s">
+        <v>88</v>
+      </c>
+      <c r="H36" s="149">
         <f>N36</f>
         <v>0.20234300000000002</v>
       </c>
-      <c r="I36" s="143"/>
-      <c r="J36" s="143"/>
-      <c r="K36" s="143"/>
-      <c r="L36" s="143"/>
+      <c r="I36" s="141"/>
+      <c r="J36" s="141"/>
+      <c r="K36" s="141"/>
+      <c r="L36" s="141"/>
       <c r="M36" s="11"/>
-      <c r="N36" s="146">
+      <c r="N36" s="144">
         <f>Notes!E136</f>
         <v>0.20234300000000002</v>
       </c>
       <c r="O36" s="46"/>
       <c r="P36" s="46"/>
-      <c r="Q36" s="150" t="s">
-        <v>117</v>
+      <c r="Q36" s="148" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="16" thickBot="1">
-      <c r="A37" s="128"/>
-      <c r="B37" s="129"/>
+      <c r="A37" s="126"/>
+      <c r="B37" s="127"/>
       <c r="C37" s="107" t="s">
         <v>21</v>
       </c>
       <c r="F37" s="12"/>
       <c r="H37" s="54">
+        <f>N37</f>
+        <v>0.9</v>
+      </c>
+      <c r="N37" s="54">
+        <f>Notes!E269</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="16" thickBot="1">
+      <c r="A38" s="126"/>
+      <c r="B38" s="127"/>
+      <c r="C38" s="153" t="s">
+        <v>92</v>
+      </c>
+      <c r="H38" s="130">
+        <v>442800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="16" thickBot="1">
+      <c r="A39" s="126"/>
+      <c r="B39" s="127"/>
+      <c r="C39" s="153" t="s">
+        <v>93</v>
+      </c>
+      <c r="H39" s="130">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="16" thickBot="1">
-      <c r="A38" s="128"/>
-      <c r="B38" s="129"/>
-      <c r="C38" s="156" t="s">
-        <v>93</v>
-      </c>
-      <c r="H38" s="132">
-        <v>442800</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="16" thickBot="1">
-      <c r="A39" s="128"/>
-      <c r="B39" s="129"/>
-      <c r="C39" s="156" t="s">
+    <row r="40" spans="1:17" ht="16" thickBot="1">
+      <c r="A40" s="126"/>
+      <c r="B40" s="127"/>
+      <c r="C40" s="153" t="s">
         <v>94</v>
       </c>
-      <c r="H39" s="132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="16" thickBot="1">
-      <c r="A40" s="128"/>
-      <c r="B40" s="129"/>
-      <c r="C40" s="156" t="s">
+      <c r="H40" s="130">
+        <v>2835000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="16" thickBot="1">
+      <c r="A41" s="126"/>
+      <c r="B41" s="127"/>
+      <c r="C41" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="H40" s="132">
-        <v>2835000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="16" thickBot="1">
-      <c r="A41" s="128"/>
-      <c r="B41" s="129"/>
-      <c r="C41" s="156" t="s">
+      <c r="H41" s="130">
+        <v>534600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="16" thickBot="1">
+      <c r="A42" s="126"/>
+      <c r="B42" s="127"/>
+      <c r="C42" s="153" t="s">
         <v>96</v>
       </c>
-      <c r="H41" s="132">
-        <v>534600</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="16" thickBot="1">
-      <c r="A42" s="128"/>
-      <c r="B42" s="129"/>
-      <c r="C42" s="156" t="s">
-        <v>97</v>
-      </c>
-      <c r="H42" s="132">
+      <c r="H42" s="130">
         <v>354600</v>
       </c>
     </row>
@@ -5148,10 +5175,10 @@
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:J24"/>
+  <dimension ref="B1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5244,14 +5271,14 @@
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="63"/>
-      <c r="C7" s="148" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="133" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="133" t="s">
-        <v>63</v>
+      <c r="C7" s="146" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="131" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="131" t="s">
+        <v>62</v>
       </c>
       <c r="F7" s="59">
         <v>2015</v>
@@ -5263,16 +5290,16 @@
         <v>42328</v>
       </c>
       <c r="I7" s="103" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J7" s="47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="63"/>
-      <c r="C8" s="128" t="s">
-        <v>67</v>
+      <c r="C8" s="126" t="s">
+        <v>66</v>
       </c>
       <c r="D8" s="59"/>
       <c r="E8" s="59"/>
@@ -5284,8 +5311,8 @@
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="63"/>
-      <c r="C9" s="165" t="s">
-        <v>168</v>
+      <c r="C9" s="162" t="s">
+        <v>167</v>
       </c>
       <c r="D9" s="111"/>
       <c r="E9" s="111"/>
@@ -5311,19 +5338,19 @@
       <c r="F11" s="59"/>
       <c r="G11" s="59"/>
       <c r="H11" s="106"/>
-      <c r="I11" s="133"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="101"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="63"/>
-      <c r="C12" s="148" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="128" t="s">
-        <v>114</v>
-      </c>
-      <c r="E12" s="133" t="s">
-        <v>63</v>
+      <c r="C12" s="146" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="126" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="131" t="s">
+        <v>62</v>
       </c>
       <c r="F12" s="59">
         <v>2015</v>
@@ -5334,35 +5361,35 @@
       <c r="H12" s="106">
         <v>42328</v>
       </c>
-      <c r="I12" s="133" t="s">
-        <v>151</v>
+      <c r="I12" s="131" t="s">
+        <v>150</v>
       </c>
       <c r="J12" s="59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="63"/>
-      <c r="C13" s="128" t="s">
-        <v>109</v>
+      <c r="C13" s="126" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="63"/>
-      <c r="C14" s="128" t="s">
+      <c r="C14" s="126" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="63"/>
-      <c r="C15" s="148" t="s">
-        <v>106</v>
+      <c r="C15" s="146" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="63"/>
-      <c r="C16" s="149" t="s">
-        <v>75</v>
+      <c r="C16" s="147" t="s">
+        <v>74</v>
       </c>
       <c r="D16" s="59"/>
       <c r="E16" s="59"/>
@@ -5374,8 +5401,8 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="63"/>
-      <c r="C17" s="148" t="s">
-        <v>123</v>
+      <c r="C17" s="146" t="s">
+        <v>122</v>
       </c>
       <c r="D17" s="59"/>
       <c r="E17" s="59"/>
@@ -5387,8 +5414,8 @@
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="63"/>
-      <c r="C18" s="165" t="s">
-        <v>149</v>
+      <c r="C18" s="162" t="s">
+        <v>148</v>
       </c>
       <c r="D18" s="59"/>
       <c r="E18" s="59"/>
@@ -5399,37 +5426,42 @@
       <c r="J18" s="59"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="C19" s="148" t="s">
-        <v>107</v>
+      <c r="C19" s="146" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="2:10">
-      <c r="C20" s="165" t="s">
-        <v>73</v>
+      <c r="C20" s="162" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="2:10">
-      <c r="C21" s="168" t="s">
-        <v>149</v>
+      <c r="C21" s="165" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="2:10">
-      <c r="C22" s="168" t="s">
-        <v>152</v>
+      <c r="C22" s="165" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="2:10">
-      <c r="C23" s="168" t="s">
-        <v>154</v>
+      <c r="C23" s="165" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="2:10">
-      <c r="C24" s="168" t="s">
-        <v>158</v>
+      <c r="C24" s="165" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="C25" s="168" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -5445,10 +5477,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:O258"/>
+  <dimension ref="A1:P270"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="G146" sqref="G146"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5459,9 +5491,11 @@
     <col min="4" max="4" width="4" style="70" customWidth="1"/>
     <col min="5" max="5" width="13.125" style="70" customWidth="1"/>
     <col min="6" max="6" width="6.125" style="70" customWidth="1"/>
-    <col min="7" max="13" width="10.625" style="70"/>
-    <col min="14" max="14" width="7.125" style="70" customWidth="1"/>
-    <col min="15" max="16384" width="10.625" style="70"/>
+    <col min="7" max="12" width="10.625" style="70"/>
+    <col min="13" max="13" width="19.5" style="70" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="70" customWidth="1"/>
+    <col min="15" max="15" width="55.5" style="70" customWidth="1"/>
+    <col min="16" max="16384" width="10.625" style="70"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16" thickBot="1"/>
@@ -5487,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="78" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" s="78" t="s">
         <v>26</v>
@@ -5536,7 +5570,7 @@
     <row r="6" spans="1:15">
       <c r="B6" s="76"/>
       <c r="C6" s="70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="77"/>
       <c r="G6" s="77"/>
@@ -5552,7 +5586,7 @@
     <row r="7" spans="1:15">
       <c r="B7" s="76"/>
       <c r="C7" s="70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="77"/>
       <c r="E7" s="77"/>
@@ -5570,7 +5604,7 @@
     <row r="8" spans="1:15">
       <c r="B8" s="76"/>
       <c r="C8" s="77" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" s="77"/>
       <c r="E8" s="77"/>
@@ -5588,7 +5622,7 @@
     <row r="9" spans="1:15">
       <c r="B9" s="76"/>
       <c r="C9" s="77" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D9" s="77"/>
       <c r="E9" s="77"/>
@@ -5606,7 +5640,7 @@
     <row r="10" spans="1:15">
       <c r="B10" s="76"/>
       <c r="C10" s="77" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D10" s="77"/>
       <c r="E10" s="77"/>
@@ -5639,7 +5673,7 @@
     <row r="12" spans="1:15">
       <c r="B12" s="76"/>
       <c r="C12" s="70" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D12" s="77"/>
       <c r="E12" s="77"/>
@@ -5657,7 +5691,7 @@
     <row r="13" spans="1:15">
       <c r="B13" s="76"/>
       <c r="C13" s="70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D13" s="77"/>
       <c r="E13" s="77"/>
@@ -5675,7 +5709,7 @@
     <row r="14" spans="1:15">
       <c r="B14" s="76"/>
       <c r="C14" s="70" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D14" s="77"/>
       <c r="E14" s="77"/>
@@ -5693,7 +5727,7 @@
     <row r="15" spans="1:15">
       <c r="B15" s="76"/>
       <c r="C15" s="70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D15" s="77"/>
       <c r="E15" s="77"/>
@@ -5884,10 +5918,10 @@
         <v>69728</v>
       </c>
       <c r="F27" s="77" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G27" s="77" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H27" s="77"/>
       <c r="I27" s="77"/>
@@ -5906,10 +5940,10 @@
         <v>1729</v>
       </c>
       <c r="F28" s="77" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G28" s="77" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H28" s="77"/>
       <c r="I28" s="77"/>
@@ -5926,17 +5960,17 @@
         <v>34000</v>
       </c>
       <c r="D29" s="77" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E29" s="77">
         <f>0.98+2138</f>
         <v>2138.98</v>
       </c>
       <c r="F29" s="77" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G29" s="77" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H29" s="77"/>
       <c r="I29" s="77"/>
@@ -5997,7 +6031,7 @@
       </c>
       <c r="F32" s="77"/>
       <c r="G32" s="77" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H32" s="77"/>
       <c r="I32" s="77"/>
@@ -6008,7 +6042,7 @@
       <c r="N32" s="77"/>
       <c r="O32" s="77"/>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:16">
       <c r="B33" s="76"/>
       <c r="C33" s="77"/>
       <c r="E33" s="77">
@@ -6017,7 +6051,7 @@
       </c>
       <c r="F33" s="77"/>
       <c r="G33" s="77" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H33" s="77"/>
       <c r="I33" s="77"/>
@@ -6028,14 +6062,14 @@
       <c r="N33" s="77"/>
       <c r="O33" s="77"/>
     </row>
-    <row r="34" spans="2:15">
+    <row r="34" spans="2:16">
       <c r="B34" s="76"/>
       <c r="E34" s="77">
         <f>E29/($E$28+$E$29+$E$27)</f>
         <v>2.9063815713847415E-2</v>
       </c>
       <c r="G34" s="70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H34" s="77"/>
       <c r="I34" s="77"/>
@@ -6046,7 +6080,7 @@
       <c r="N34" s="77"/>
       <c r="O34" s="77"/>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:16">
       <c r="B35" s="76"/>
       <c r="C35" s="77"/>
       <c r="D35" s="77"/>
@@ -6062,7 +6096,7 @@
       <c r="N35" s="77"/>
       <c r="O35" s="77"/>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:16">
       <c r="B36" s="76"/>
       <c r="C36" s="77"/>
       <c r="D36" s="77"/>
@@ -6070,10 +6104,10 @@
         <v>44.8</v>
       </c>
       <c r="F36" s="70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G36" s="70" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H36" s="77"/>
       <c r="I36" s="77"/>
@@ -6084,7 +6118,7 @@
       <c r="N36" s="77"/>
       <c r="O36" s="77"/>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:16">
       <c r="B37" s="76"/>
       <c r="C37" s="77"/>
       <c r="D37" s="77"/>
@@ -6094,7 +6128,7 @@
       </c>
       <c r="F37" s="77"/>
       <c r="G37" s="77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H37" s="104"/>
       <c r="I37" s="77"/>
@@ -6105,13 +6139,13 @@
       <c r="N37" s="77"/>
       <c r="O37" s="77"/>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:16">
       <c r="B38" s="76"/>
       <c r="C38" s="77"/>
       <c r="D38" s="77"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
+      <c r="G38" s="173"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="77"/>
       <c r="J38" s="77"/>
       <c r="K38" s="77"/>
       <c r="L38" s="77"/>
@@ -6119,15 +6153,15 @@
       <c r="N38" s="77"/>
       <c r="O38" s="77"/>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:16" ht="16" thickBot="1">
       <c r="B39" s="76"/>
       <c r="C39" s="77"/>
       <c r="D39" s="77"/>
       <c r="E39" s="77"/>
       <c r="F39" s="77"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="173"/>
       <c r="J39" s="77"/>
       <c r="K39" s="77"/>
       <c r="L39" s="77"/>
@@ -6135,23 +6169,24 @@
       <c r="N39" s="77"/>
       <c r="O39" s="77"/>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:16">
       <c r="B40" s="76"/>
       <c r="C40" s="77"/>
       <c r="D40" s="77"/>
       <c r="E40" s="77"/>
       <c r="F40" s="77"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="77"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="77"/>
-      <c r="N40" s="77"/>
-      <c r="O40" s="77"/>
-    </row>
-    <row r="41" spans="2:15">
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="112"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="113"/>
+    </row>
+    <row r="41" spans="2:16" ht="18">
       <c r="B41" s="76"/>
       <c r="C41" s="77"/>
       <c r="D41" s="77"/>
@@ -6159,42 +6194,86 @@
       <c r="F41" s="77"/>
       <c r="G41" s="77"/>
       <c r="H41" s="77"/>
-      <c r="I41" s="77"/>
-      <c r="J41" s="77"/>
-      <c r="K41" s="77"/>
-      <c r="L41" s="77"/>
-      <c r="M41" s="77"/>
-      <c r="N41" s="77"/>
-      <c r="O41" s="77"/>
-    </row>
-    <row r="42" spans="2:15">
+      <c r="I41" s="114"/>
+      <c r="J41" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K41" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="L41" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N41" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="O41" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P41" s="116"/>
+    </row>
+    <row r="42" spans="2:16" ht="19" thickBot="1">
       <c r="B42" s="76"/>
       <c r="C42" s="77"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="77"/>
-      <c r="M42" s="77"/>
-      <c r="N42" s="77"/>
-      <c r="O42" s="77"/>
-    </row>
-    <row r="43" spans="2:15">
+      <c r="I42" s="25"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42" s="117"/>
+    </row>
+    <row r="43" spans="2:16" ht="19" thickBot="1">
       <c r="B43" s="76"/>
       <c r="C43" s="77"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="77"/>
-      <c r="M43" s="77"/>
-      <c r="N43" s="77"/>
-      <c r="O43" s="77"/>
-    </row>
-    <row r="44" spans="2:15">
+      <c r="E43" s="172">
+        <f>L43</f>
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="F43" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="G43" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="I43" s="25"/>
+      <c r="J43" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="K43" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="L43" s="119">
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="M43" s="118" t="s">
+        <v>58</v>
+      </c>
+      <c r="N43" s="120">
+        <v>42221</v>
+      </c>
+      <c r="O43" s="121" t="s">
+        <v>59</v>
+      </c>
+      <c r="P43" s="117"/>
+    </row>
+    <row r="44" spans="2:16" ht="16" thickBot="1">
       <c r="B44" s="76"/>
       <c r="C44" s="77"/>
-      <c r="K44" s="77"/>
-      <c r="L44" s="77"/>
-      <c r="M44" s="77"/>
-      <c r="N44" s="77"/>
-      <c r="O44" s="77"/>
-    </row>
-    <row r="45" spans="2:15">
+      <c r="I44" s="170"/>
+      <c r="J44" s="169"/>
+      <c r="K44" s="169"/>
+      <c r="L44" s="169"/>
+      <c r="M44" s="169"/>
+      <c r="N44" s="169"/>
+      <c r="O44" s="169"/>
+      <c r="P44" s="171"/>
+    </row>
+    <row r="45" spans="2:16">
       <c r="B45" s="76"/>
       <c r="C45" s="77"/>
       <c r="K45" s="77"/>
@@ -6203,7 +6282,7 @@
       <c r="N45" s="77"/>
       <c r="O45" s="77"/>
     </row>
-    <row r="46" spans="2:15">
+    <row r="46" spans="2:16">
       <c r="B46" s="76"/>
       <c r="C46" s="77"/>
       <c r="E46" s="105"/>
@@ -6214,7 +6293,7 @@
       <c r="N46" s="77"/>
       <c r="O46" s="77"/>
     </row>
-    <row r="47" spans="2:15">
+    <row r="47" spans="2:16">
       <c r="B47" s="76"/>
       <c r="C47" s="77"/>
       <c r="E47" s="77"/>
@@ -6225,10 +6304,10 @@
       <c r="N47" s="77"/>
       <c r="O47" s="77"/>
     </row>
-    <row r="48" spans="2:15">
+    <row r="48" spans="2:16">
       <c r="B48" s="76"/>
       <c r="C48" s="70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K48" s="77"/>
       <c r="L48" s="77"/>
@@ -6239,7 +6318,7 @@
     <row r="49" spans="2:15">
       <c r="B49" s="76"/>
       <c r="C49" s="70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K49" s="77"/>
       <c r="L49" s="77"/>
@@ -6250,7 +6329,7 @@
     <row r="50" spans="2:15" ht="16">
       <c r="B50" s="76"/>
       <c r="C50" s="77" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J50"/>
       <c r="K50" s="77"/>
@@ -6262,7 +6341,7 @@
     <row r="51" spans="2:15">
       <c r="B51" s="76"/>
       <c r="C51" s="77" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D51" s="77"/>
       <c r="K51" s="77"/>
@@ -6284,7 +6363,7 @@
     <row r="53" spans="2:15">
       <c r="B53" s="76"/>
       <c r="C53" s="70" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D53" s="77"/>
       <c r="K53" s="77"/>
@@ -6296,7 +6375,7 @@
     <row r="54" spans="2:15">
       <c r="B54" s="76"/>
       <c r="C54" s="70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K54" s="77"/>
       <c r="L54" s="77"/>
@@ -6307,7 +6386,7 @@
     <row r="55" spans="2:15">
       <c r="B55" s="76"/>
       <c r="C55" s="70" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K55" s="77"/>
       <c r="L55" s="77"/>
@@ -6318,7 +6397,7 @@
     <row r="56" spans="2:15">
       <c r="B56" s="76"/>
       <c r="C56" s="70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K56" s="77"/>
       <c r="L56" s="77"/>
@@ -6329,16 +6408,6 @@
     <row r="57" spans="2:15">
       <c r="B57" s="76"/>
       <c r="D57" s="77"/>
-      <c r="E57" s="70">
-        <f>Exchange_rates!E9</f>
-        <v>1.0980000000000001</v>
-      </c>
-      <c r="F57" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="G57" s="70" t="s">
-        <v>131</v>
-      </c>
       <c r="K57" s="77"/>
       <c r="L57" s="77"/>
       <c r="M57" s="77"/>
@@ -6379,7 +6448,7 @@
     </row>
     <row r="62" spans="2:15">
       <c r="B62" s="76"/>
-      <c r="F62" s="154"/>
+      <c r="F62" s="151"/>
       <c r="K62" s="77"/>
       <c r="L62" s="77"/>
       <c r="M62" s="77"/>
@@ -6404,14 +6473,14 @@
     </row>
     <row r="65" spans="2:15">
       <c r="B65" s="76"/>
-      <c r="E65" s="155">
+      <c r="E65" s="152">
         <v>90</v>
       </c>
       <c r="F65" s="70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G65" s="70" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K65" s="77"/>
       <c r="L65" s="77"/>
@@ -6426,7 +6495,7 @@
         <v>0.9</v>
       </c>
       <c r="G66" s="70" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K66" s="77"/>
       <c r="L66" s="77"/>
@@ -6441,10 +6510,10 @@
         <v>7884</v>
       </c>
       <c r="F67" s="70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G67" s="70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K67" s="77"/>
       <c r="L67" s="77"/>
@@ -6467,7 +6536,7 @@
         <v>155236</v>
       </c>
       <c r="F69" s="70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K69" s="77"/>
       <c r="L69" s="77"/>
@@ -6483,7 +6552,7 @@
         <v>6468.166666666667</v>
       </c>
       <c r="F70" s="70" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L70" s="77"/>
       <c r="M70" s="77"/>
@@ -6498,7 +6567,7 @@
         <v>776826.81666666665</v>
       </c>
       <c r="F71" s="70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L71" s="77"/>
       <c r="M71" s="77"/>
@@ -6513,7 +6582,7 @@
         <v>215.78522685185183</v>
       </c>
       <c r="F72" s="70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L72" s="77"/>
       <c r="M72" s="77"/>
@@ -6537,10 +6606,10 @@
         <v>6124502622.5999994</v>
       </c>
       <c r="F74" s="70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G74" s="70" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K74" s="77"/>
       <c r="L74" s="77"/>
@@ -6584,10 +6653,10 @@
         <v>40</v>
       </c>
       <c r="F80" s="70" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G80" s="70" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N80" s="77"/>
       <c r="O80" s="77"/>
@@ -6598,10 +6667,10 @@
         <v>3</v>
       </c>
       <c r="F81" s="70" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G81" s="70" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N81" s="77"/>
       <c r="O81" s="77"/>
@@ -6677,10 +6746,10 @@
         <v>10</v>
       </c>
       <c r="F95" s="70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G95" s="70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N95" s="77"/>
       <c r="O95" s="77"/>
@@ -6692,7 +6761,7 @@
         <v>0.1</v>
       </c>
       <c r="G96" s="70" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N96" s="77"/>
       <c r="O96" s="77"/>
@@ -6853,23 +6922,23 @@
         <v>292913979</v>
       </c>
       <c r="F129" s="70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G129" s="70" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="130" spans="2:7">
       <c r="B130" s="76"/>
       <c r="E130" s="70">
-        <f>E129/E57</f>
+        <f>E129/E43</f>
         <v>266770472.67759562</v>
       </c>
       <c r="F130" s="70" t="s">
         <v>20</v>
       </c>
       <c r="G130" s="70" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="131" spans="2:7">
@@ -6882,7 +6951,7 @@
         <v>20</v>
       </c>
       <c r="G131" s="70" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="132" spans="2:7">
@@ -6900,10 +6969,10 @@
         <v>50</v>
       </c>
       <c r="F135" s="70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G135" s="70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="136" spans="2:7">
@@ -6913,10 +6982,10 @@
         <v>0.20234300000000002</v>
       </c>
       <c r="F136" s="70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G136" s="70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="137" spans="2:7">
@@ -6937,23 +7006,23 @@
         <v>158118579</v>
       </c>
       <c r="F141" s="70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G141" s="70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="142" spans="2:7">
       <c r="B142" s="76"/>
       <c r="E142" s="70">
-        <f>E141/E57</f>
+        <f>E141/E43</f>
         <v>144005991.80327868</v>
       </c>
       <c r="F142" s="70" t="s">
         <v>20</v>
       </c>
       <c r="G142" s="70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="143" spans="2:7">
@@ -6962,13 +7031,13 @@
     <row r="144" spans="2:7">
       <c r="B144" s="76"/>
       <c r="G144" s="70" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="145" spans="2:7">
       <c r="B145" s="76"/>
       <c r="G145" s="70" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="146" spans="2:7">
@@ -7003,22 +7072,22 @@
         <v>10449181</v>
       </c>
       <c r="F163" s="70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G163" s="70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="164" spans="5:7">
       <c r="E164" s="70">
-        <f>E163/E57</f>
+        <f>E163/E43</f>
         <v>9516558.2877959926</v>
       </c>
       <c r="F164" s="70" t="s">
         <v>53</v>
       </c>
       <c r="G164" s="70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="189" spans="11:11">
@@ -7036,27 +7105,27 @@
         <v>9617000</v>
       </c>
       <c r="F214" s="70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G214" s="70" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="215" spans="5:7">
       <c r="E215" s="70">
-        <f>E214/E57</f>
+        <f>E214/E43</f>
         <v>8758652.0947176684</v>
       </c>
       <c r="F215" s="70" t="s">
         <v>53</v>
       </c>
       <c r="G215" s="70" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="216" spans="5:7">
       <c r="G216" s="70" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="218" spans="5:7">
@@ -7065,10 +7134,10 @@
         <v>1.4301001459934731E-3</v>
       </c>
       <c r="F218" s="70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G218" s="70" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="219" spans="5:7">
@@ -7077,10 +7146,10 @@
         <v>1110.9401439266449</v>
       </c>
       <c r="F219" s="70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G219" s="70" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="242" spans="5:7">
@@ -7088,27 +7157,27 @@
         <v>96755555</v>
       </c>
       <c r="F242" s="70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G242" s="70" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="243" spans="5:7">
       <c r="E243" s="70">
-        <f>E242/E57</f>
+        <f>E242/E43</f>
         <v>88119813.296903461</v>
       </c>
       <c r="F243" s="70" t="s">
         <v>20</v>
       </c>
       <c r="G243" s="70" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="250" spans="5:7">
       <c r="F250" s="70" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="257" spans="5:7">
@@ -7116,22 +7185,35 @@
         <v>2880770</v>
       </c>
       <c r="F257" s="70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G257" s="70" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="258" spans="5:7">
       <c r="E258" s="70">
-        <f>E257/E57</f>
+        <f>E257/E43</f>
         <v>2623652.0947176684</v>
       </c>
       <c r="F258" s="70" t="s">
         <v>53</v>
       </c>
       <c r="G258" s="70" t="s">
-        <v>165</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="269" spans="5:7">
+      <c r="E269" s="70">
+        <v>0.9</v>
+      </c>
+      <c r="G269" s="70" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="270" spans="5:7">
+      <c r="G270" s="70" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -7144,152 +7226,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="3" max="3" width="27.125" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="17.75" customWidth="1"/>
-    <col min="8" max="8" width="10.625" customWidth="1"/>
-    <col min="9" max="9" width="47.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="112"/>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="112"/>
-      <c r="B2" s="171" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="112"/>
-      <c r="B3" s="174"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="112"/>
-      <c r="B4" s="177"/>
-      <c r="C4" s="178"/>
-      <c r="D4" s="178"/>
-      <c r="E4" s="182"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-    </row>
-    <row r="5" spans="1:9" ht="17" thickBot="1">
-      <c r="A5" s="112"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="112"/>
-      <c r="B6" s="113"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="114"/>
-    </row>
-    <row r="7" spans="1:9" ht="18">
-      <c r="A7" s="115"/>
-      <c r="B7" s="116"/>
-      <c r="C7" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="118"/>
-    </row>
-    <row r="8" spans="1:9" ht="19" thickBot="1">
-      <c r="B8" s="25"/>
-      <c r="I8" s="119"/>
-    </row>
-    <row r="9" spans="1:9" ht="19" thickBot="1">
-      <c r="A9" s="115"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="120" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="121">
-        <v>1.0980000000000001</v>
-      </c>
-      <c r="F9" s="120" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="122">
-        <v>42221</v>
-      </c>
-      <c r="H9" s="123" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="119"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:E4"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/nodes_source_analyses/energy/energy_biomass_gasification_ccs_hydrogen.converter.xlsx
+++ b/nodes_source_analyses/energy/energy_biomass_gasification_ccs_hydrogen.converter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="4"/>
+    <workbookView xWindow="19200" yWindow="-20" windowWidth="19200" windowHeight="23460" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="180">
   <si>
     <t>Source</t>
   </si>
@@ -407,9 +407,6 @@
     <t>DOE: Hydrogen Analysis Center</t>
   </si>
   <si>
-    <t>Hydrogen output capacity</t>
-  </si>
-  <si>
     <t>input share of electricity</t>
   </si>
   <si>
@@ -483,21 +480,6 @@
   </si>
   <si>
     <t>variable operating and maintenance costs per FLH</t>
-  </si>
-  <si>
-    <r>
-      <t>variable_operation_and_maintenance_costs_per_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>flh</t>
-    </r>
   </si>
   <si>
     <t>euro/flh</t>
@@ -566,9 +548,6 @@
     <t>Installation costs</t>
   </si>
   <si>
-    <t>decommisioning_costs</t>
-  </si>
-  <si>
     <t>Decommissioning costs</t>
   </si>
   <si>
@@ -636,6 +615,52 @@
   </si>
   <si>
     <t>CCS</t>
+  </si>
+  <si>
+    <t>typical_input_capacity</t>
+  </si>
+  <si>
+    <t>Typical input capacity</t>
+  </si>
+  <si>
+    <r>
+      <t>decommi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sioning_costs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>variable_operation_and_maintenance_costs_per_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>full_load_hour</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -651,12 +676,19 @@
     <numFmt numFmtId="169" formatCode="0.00000"/>
     <numFmt numFmtId="170" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1172,747 +1204,753 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="458">
+  <cellStyleXfs count="459">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="18" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="458">
+  <cellStyles count="459">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2280,6 +2318,7 @@
     <cellStyle name="Followed Hyperlink" xfId="455" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="457" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2531,44 +2570,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7188200" y="11087100"/>
-          <a:ext cx="6032500" cy="1308100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -2588,7 +2589,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2626,7 +2627,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2664,7 +2665,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2702,7 +2703,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3319,7 +3320,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3472,8 +3473,8 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3495,36 +3496,36 @@
       <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="B2" s="174" t="s">
+      <c r="B2" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="176"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="178"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="B3" s="177"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="179"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="181"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="177"/>
-      <c r="C4" s="178"/>
-      <c r="D4" s="178"/>
-      <c r="E4" s="179"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="180"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="181"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="180"/>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="182"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="184"/>
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
     </row>
@@ -3606,11 +3607,11 @@
       </c>
       <c r="F12" s="39"/>
       <c r="G12" s="163" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="125" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J12" s="14"/>
       <c r="L12" s="35"/>
@@ -3627,11 +3628,11 @@
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="163" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H13" s="32"/>
       <c r="I13" s="125" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J13" s="14"/>
       <c r="L13" s="35"/>
@@ -3640,7 +3641,7 @@
       <c r="A14" s="26"/>
       <c r="B14" s="25"/>
       <c r="C14" s="163" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="110">
@@ -3649,11 +3650,11 @@
       </c>
       <c r="F14" s="39"/>
       <c r="G14" s="163" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H14" s="32"/>
       <c r="I14" s="125" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="26"/>
@@ -3677,7 +3678,7 @@
       </c>
       <c r="H15" s="32"/>
       <c r="I15" s="125" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J15" s="14"/>
       <c r="K15" s="26"/>
@@ -3685,23 +3686,23 @@
     <row r="16" spans="1:12" ht="16" thickBot="1">
       <c r="A16" s="126"/>
       <c r="B16" s="127"/>
-      <c r="C16" s="123" t="s">
-        <v>72</v>
+      <c r="C16" s="175" t="s">
+        <v>176</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>71</v>
       </c>
       <c r="E16" s="110">
         <f>'Research data'!H11</f>
-        <v>215.78522685185183</v>
+        <v>481.66345279431215</v>
       </c>
       <c r="F16" s="123"/>
-      <c r="G16" s="123" t="s">
-        <v>110</v>
+      <c r="G16" s="175" t="s">
+        <v>177</v>
       </c>
       <c r="H16" s="123"/>
       <c r="I16" s="125" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J16" s="129"/>
       <c r="K16" s="36"/>
@@ -3722,7 +3723,7 @@
       <c r="G17" s="123"/>
       <c r="H17" s="123"/>
       <c r="I17" s="125" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J17" s="129"/>
       <c r="K17" s="36"/>
@@ -3743,7 +3744,7 @@
       <c r="G18" s="123"/>
       <c r="H18" s="123"/>
       <c r="I18" s="125" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J18" s="129"/>
     </row>
@@ -3788,7 +3789,7 @@
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="125" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J21" s="97"/>
     </row>
@@ -3810,17 +3811,17 @@
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="125" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J22" s="97"/>
     </row>
     <row r="23" spans="1:11" ht="16" thickBot="1">
       <c r="B23" s="156"/>
-      <c r="C23" s="157" t="s">
-        <v>136</v>
+      <c r="C23" s="185" t="s">
+        <v>179</v>
       </c>
       <c r="D23" s="158" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E23" s="110">
         <f>'Research data'!H24</f>
@@ -3828,21 +3829,21 @@
       </c>
       <c r="F23" s="159"/>
       <c r="G23" s="157" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H23" s="159"/>
       <c r="I23" s="125" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J23" s="160"/>
     </row>
     <row r="24" spans="1:11" ht="16" thickBot="1">
       <c r="B24" s="156"/>
       <c r="C24" s="165" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D24" s="158" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E24" s="110">
         <f>'Research data'!H25</f>
@@ -3850,11 +3851,11 @@
       </c>
       <c r="F24" s="159"/>
       <c r="G24" s="165" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H24" s="159"/>
       <c r="I24" s="125" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J24" s="160"/>
     </row>
@@ -3862,7 +3863,7 @@
       <c r="A25" s="162"/>
       <c r="B25" s="164"/>
       <c r="C25" s="165" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D25" s="158" t="s">
         <v>20</v>
@@ -3873,11 +3874,11 @@
       </c>
       <c r="F25" s="165"/>
       <c r="G25" s="165" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H25" s="165"/>
       <c r="I25" s="125" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J25" s="166"/>
       <c r="K25" s="162"/>
@@ -3886,7 +3887,7 @@
       <c r="A26" s="162"/>
       <c r="B26" s="164"/>
       <c r="C26" s="165" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D26" s="158" t="s">
         <v>20</v>
@@ -3897,11 +3898,11 @@
       </c>
       <c r="F26" s="165"/>
       <c r="G26" s="165" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H26" s="165"/>
       <c r="I26" s="125" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J26" s="166"/>
       <c r="K26" s="162"/>
@@ -3909,8 +3910,8 @@
     <row r="27" spans="1:11" ht="16" thickBot="1">
       <c r="A27" s="162"/>
       <c r="B27" s="164"/>
-      <c r="C27" s="165" t="s">
-        <v>155</v>
+      <c r="C27" s="185" t="s">
+        <v>178</v>
       </c>
       <c r="D27" s="158" t="s">
         <v>20</v>
@@ -3921,11 +3922,11 @@
       </c>
       <c r="F27" s="165"/>
       <c r="G27" s="165" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H27" s="165"/>
       <c r="I27" s="125" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J27" s="166"/>
       <c r="K27" s="162"/>
@@ -3934,10 +3935,10 @@
       <c r="A28" s="162"/>
       <c r="B28" s="164"/>
       <c r="C28" s="165" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D28" s="158" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E28" s="110">
         <f>'Research data'!H29</f>
@@ -3945,11 +3946,11 @@
       </c>
       <c r="F28" s="165"/>
       <c r="G28" s="163" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H28" s="165"/>
       <c r="I28" s="125" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J28" s="166"/>
       <c r="K28" s="162"/>
@@ -4036,7 +4037,7 @@
       </c>
       <c r="H33" s="123"/>
       <c r="I33" s="125" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J33" s="129"/>
     </row>
@@ -4059,7 +4060,7 @@
       </c>
       <c r="H34" s="123"/>
       <c r="I34" s="125" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J34" s="129"/>
     </row>
@@ -4082,7 +4083,7 @@
       </c>
       <c r="H35" s="123"/>
       <c r="I35" s="125" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J35" s="129"/>
     </row>
@@ -4271,7 +4272,7 @@
   <dimension ref="A2:T42"/>
   <sheetViews>
     <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4345,7 +4346,7 @@
       </c>
       <c r="M4" s="94"/>
       <c r="N4" s="94" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O4" s="94"/>
       <c r="P4" s="94"/>
@@ -4444,7 +4445,7 @@
     <row r="9" spans="1:20" ht="16" thickBot="1">
       <c r="B9" s="45"/>
       <c r="C9" s="161" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D9" s="53"/>
       <c r="E9" s="53"/>
@@ -4497,8 +4498,8 @@
     </row>
     <row r="11" spans="1:20" ht="16" thickBot="1">
       <c r="B11" s="45"/>
-      <c r="C11" s="124" t="s">
-        <v>72</v>
+      <c r="C11" s="174" t="s">
+        <v>176</v>
       </c>
       <c r="D11" s="53"/>
       <c r="E11" s="53"/>
@@ -4508,12 +4509,12 @@
       <c r="G11" s="95"/>
       <c r="H11" s="109">
         <f>J11</f>
-        <v>215.78522685185183</v>
+        <v>481.66345279431215</v>
       </c>
       <c r="I11" s="50"/>
       <c r="J11" s="109">
-        <f>Notes!E72</f>
-        <v>215.78522685185183</v>
+        <f>Notes!E73</f>
+        <v>481.66345279431215</v>
       </c>
       <c r="K11" s="50"/>
       <c r="M11" s="50"/>
@@ -4748,7 +4749,7 @@
         <v>9516558.2877959926</v>
       </c>
       <c r="Q21" s="148" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="16" thickBot="1">
@@ -4772,7 +4773,7 @@
         <v>8758652.0947176684</v>
       </c>
       <c r="Q22" s="148" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="16" thickBot="1">
@@ -4796,7 +4797,7 @@
         <v>1.4301001459934731E-3</v>
       </c>
       <c r="Q23" s="148" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="16" thickBot="1">
@@ -4820,7 +4821,7 @@
         <v>1110.9401439266449</v>
       </c>
       <c r="Q24" s="148" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="16" thickBot="1">
@@ -4851,7 +4852,7 @@
       <c r="A26" s="126"/>
       <c r="B26" s="127"/>
       <c r="C26" s="163" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F26" s="163" t="s">
         <v>20</v>
@@ -4875,7 +4876,7 @@
       <c r="A27" s="126"/>
       <c r="B27" s="127"/>
       <c r="C27" s="163" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F27" s="163" t="s">
         <v>20</v>
@@ -4894,14 +4895,14 @@
         <v>0</v>
       </c>
       <c r="Q27" s="167" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="16" thickBot="1">
       <c r="A28" s="126"/>
       <c r="B28" s="127"/>
       <c r="C28" s="163" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F28" s="163" t="s">
         <v>20</v>
@@ -4925,10 +4926,10 @@
       <c r="A29" s="126"/>
       <c r="B29" s="127"/>
       <c r="C29" s="165" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F29" s="163" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H29" s="144">
         <f t="shared" si="0"/>
@@ -4943,14 +4944,14 @@
         <v>0</v>
       </c>
       <c r="Q29" s="167" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="16" thickBot="1">
       <c r="A30" s="126"/>
       <c r="B30" s="127"/>
       <c r="C30" s="163" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F30" s="163" t="s">
         <v>53</v>
@@ -4974,7 +4975,7 @@
       <c r="A31" s="126"/>
       <c r="B31" s="127"/>
       <c r="C31" s="163" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F31" s="163" t="s">
         <v>53</v>
@@ -5090,7 +5091,7 @@
       <c r="O36" s="46"/>
       <c r="P36" s="46"/>
       <c r="Q36" s="148" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="16" thickBot="1">
@@ -5290,10 +5291,10 @@
         <v>42328</v>
       </c>
       <c r="I7" s="103" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J7" s="47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="2:10">
@@ -5312,7 +5313,7 @@
     <row r="9" spans="2:10">
       <c r="B9" s="63"/>
       <c r="C9" s="162" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D9" s="111"/>
       <c r="E9" s="111"/>
@@ -5347,7 +5348,7 @@
         <v>107</v>
       </c>
       <c r="D12" s="126" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E12" s="131" t="s">
         <v>62</v>
@@ -5362,10 +5363,10 @@
         <v>42328</v>
       </c>
       <c r="I12" s="131" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J12" s="59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="2:10">
@@ -5402,7 +5403,7 @@
     <row r="17" spans="2:10">
       <c r="B17" s="63"/>
       <c r="C17" s="146" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D17" s="59"/>
       <c r="E17" s="59"/>
@@ -5415,7 +5416,7 @@
     <row r="18" spans="2:10">
       <c r="B18" s="63"/>
       <c r="C18" s="162" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D18" s="59"/>
       <c r="E18" s="59"/>
@@ -5437,22 +5438,22 @@
     </row>
     <row r="21" spans="2:10">
       <c r="C21" s="165" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="2:10">
       <c r="C22" s="165" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="2:10">
       <c r="C23" s="165" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="2:10">
       <c r="C24" s="165" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="2:10">
@@ -5461,7 +5462,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -5479,8 +5480,8 @@
   </sheetPr>
   <dimension ref="A1:P270"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5586,7 +5587,7 @@
     <row r="7" spans="1:15">
       <c r="B7" s="76"/>
       <c r="C7" s="70" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D7" s="77"/>
       <c r="E7" s="77"/>
@@ -5604,7 +5605,7 @@
     <row r="8" spans="1:15">
       <c r="B8" s="76"/>
       <c r="C8" s="77" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D8" s="77"/>
       <c r="E8" s="77"/>
@@ -5622,7 +5623,7 @@
     <row r="9" spans="1:15">
       <c r="B9" s="76"/>
       <c r="C9" s="77" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D9" s="77"/>
       <c r="E9" s="77"/>
@@ -5640,7 +5641,7 @@
     <row r="10" spans="1:15">
       <c r="B10" s="76"/>
       <c r="C10" s="77" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D10" s="77"/>
       <c r="E10" s="77"/>
@@ -5673,7 +5674,7 @@
     <row r="12" spans="1:15">
       <c r="B12" s="76"/>
       <c r="C12" s="70" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12" s="77"/>
       <c r="E12" s="77"/>
@@ -5691,7 +5692,7 @@
     <row r="13" spans="1:15">
       <c r="B13" s="76"/>
       <c r="C13" s="70" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D13" s="77"/>
       <c r="E13" s="77"/>
@@ -5709,7 +5710,7 @@
     <row r="14" spans="1:15">
       <c r="B14" s="76"/>
       <c r="C14" s="70" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D14" s="77"/>
       <c r="E14" s="77"/>
@@ -5727,7 +5728,7 @@
     <row r="15" spans="1:15">
       <c r="B15" s="76"/>
       <c r="C15" s="70" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D15" s="77"/>
       <c r="E15" s="77"/>
@@ -5918,10 +5919,10 @@
         <v>69728</v>
       </c>
       <c r="F27" s="77" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G27" s="77" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H27" s="77"/>
       <c r="I27" s="77"/>
@@ -5940,10 +5941,10 @@
         <v>1729</v>
       </c>
       <c r="F28" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28" s="77" t="s">
         <v>139</v>
-      </c>
-      <c r="G28" s="77" t="s">
-        <v>141</v>
       </c>
       <c r="H28" s="77"/>
       <c r="I28" s="77"/>
@@ -5960,14 +5961,14 @@
         <v>34000</v>
       </c>
       <c r="D29" s="77" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E29" s="77">
         <f>0.98+2138</f>
         <v>2138.98</v>
       </c>
       <c r="F29" s="77" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G29" s="77" t="s">
         <v>69</v>
@@ -6031,7 +6032,7 @@
       </c>
       <c r="F32" s="77"/>
       <c r="G32" s="77" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H32" s="77"/>
       <c r="I32" s="77"/>
@@ -6107,7 +6108,7 @@
         <v>83</v>
       </c>
       <c r="G36" s="70" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H36" s="77"/>
       <c r="I36" s="77"/>
@@ -6238,7 +6239,7 @@
         <v>75</v>
       </c>
       <c r="G43" s="70" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I43" s="25"/>
       <c r="J43" s="118" t="s">
@@ -6318,7 +6319,7 @@
     <row r="49" spans="2:15">
       <c r="B49" s="76"/>
       <c r="C49" s="70" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K49" s="77"/>
       <c r="L49" s="77"/>
@@ -6329,7 +6330,7 @@
     <row r="50" spans="2:15" ht="16">
       <c r="B50" s="76"/>
       <c r="C50" s="77" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J50"/>
       <c r="K50" s="77"/>
@@ -6341,7 +6342,7 @@
     <row r="51" spans="2:15">
       <c r="B51" s="76"/>
       <c r="C51" s="77" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D51" s="77"/>
       <c r="K51" s="77"/>
@@ -6363,7 +6364,7 @@
     <row r="53" spans="2:15">
       <c r="B53" s="76"/>
       <c r="C53" s="70" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D53" s="77"/>
       <c r="K53" s="77"/>
@@ -6375,7 +6376,7 @@
     <row r="54" spans="2:15">
       <c r="B54" s="76"/>
       <c r="C54" s="70" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K54" s="77"/>
       <c r="L54" s="77"/>
@@ -6386,7 +6387,7 @@
     <row r="55" spans="2:15">
       <c r="B55" s="76"/>
       <c r="C55" s="70" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K55" s="77"/>
       <c r="L55" s="77"/>
@@ -6397,7 +6398,7 @@
     <row r="56" spans="2:15">
       <c r="B56" s="76"/>
       <c r="C56" s="70" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K56" s="77"/>
       <c r="L56" s="77"/>
@@ -6480,7 +6481,7 @@
         <v>83</v>
       </c>
       <c r="G65" s="70" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K65" s="77"/>
       <c r="L65" s="77"/>
@@ -6495,7 +6496,7 @@
         <v>0.9</v>
       </c>
       <c r="G66" s="70" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K66" s="77"/>
       <c r="L66" s="77"/>
@@ -6513,7 +6514,7 @@
         <v>103</v>
       </c>
       <c r="G67" s="70" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K67" s="77"/>
       <c r="L67" s="77"/>
@@ -6552,7 +6553,7 @@
         <v>6468.166666666667</v>
       </c>
       <c r="F70" s="70" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L70" s="77"/>
       <c r="M70" s="77"/>
@@ -6584,6 +6585,9 @@
       <c r="F72" s="70" t="s">
         <v>71</v>
       </c>
+      <c r="G72" s="70" t="s">
+        <v>72</v>
+      </c>
       <c r="L72" s="77"/>
       <c r="M72" s="77"/>
       <c r="N72" s="77"/>
@@ -6592,6 +6596,16 @@
     <row r="73" spans="2:15">
       <c r="B73" s="76"/>
       <c r="C73" s="77"/>
+      <c r="E73" s="70">
+        <f>E72/E37</f>
+        <v>481.66345279431215</v>
+      </c>
+      <c r="F73" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="G73" s="70" t="s">
+        <v>176</v>
+      </c>
       <c r="K73" s="77"/>
       <c r="L73" s="77"/>
       <c r="M73" s="77"/>
@@ -6601,16 +6615,6 @@
     <row r="74" spans="2:15">
       <c r="B74" s="76"/>
       <c r="C74" s="77"/>
-      <c r="E74" s="70">
-        <f>E71*E67</f>
-        <v>6124502622.5999994</v>
-      </c>
-      <c r="F74" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="G74" s="70" t="s">
-        <v>129</v>
-      </c>
       <c r="K74" s="77"/>
       <c r="L74" s="77"/>
       <c r="M74" s="77"/>
@@ -6619,6 +6623,16 @@
     </row>
     <row r="75" spans="2:15">
       <c r="B75" s="76"/>
+      <c r="E75" s="70">
+        <f>E71*E67</f>
+        <v>6124502622.5999994</v>
+      </c>
+      <c r="F75" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="G75" s="70" t="s">
+        <v>128</v>
+      </c>
       <c r="K75" s="77"/>
       <c r="L75" s="77"/>
       <c r="M75" s="77"/>
@@ -6653,10 +6667,10 @@
         <v>40</v>
       </c>
       <c r="F80" s="70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G80" s="70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N80" s="77"/>
       <c r="O80" s="77"/>
@@ -6667,7 +6681,7 @@
         <v>3</v>
       </c>
       <c r="F81" s="70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G81" s="70" t="s">
         <v>108</v>
@@ -6749,7 +6763,7 @@
         <v>83</v>
       </c>
       <c r="G95" s="70" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N95" s="77"/>
       <c r="O95" s="77"/>
@@ -6761,7 +6775,7 @@
         <v>0.1</v>
       </c>
       <c r="G96" s="70" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="N96" s="77"/>
       <c r="O96" s="77"/>
@@ -6922,10 +6936,10 @@
         <v>292913979</v>
       </c>
       <c r="F129" s="70" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G129" s="70" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="130" spans="2:7">
@@ -6938,7 +6952,7 @@
         <v>20</v>
       </c>
       <c r="G130" s="70" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="131" spans="2:7">
@@ -6951,7 +6965,7 @@
         <v>20</v>
       </c>
       <c r="G131" s="70" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="132" spans="2:7">
@@ -6969,7 +6983,7 @@
         <v>50</v>
       </c>
       <c r="F135" s="70" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G135" s="70" t="s">
         <v>107</v>
@@ -7006,7 +7020,7 @@
         <v>158118579</v>
       </c>
       <c r="F141" s="70" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G141" s="70" t="s">
         <v>105</v>
@@ -7031,13 +7045,13 @@
     <row r="144" spans="2:7">
       <c r="B144" s="76"/>
       <c r="G144" s="70" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="145" spans="2:7">
       <c r="B145" s="76"/>
       <c r="G145" s="70" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="146" spans="2:7">
@@ -7075,7 +7089,7 @@
         <v>61</v>
       </c>
       <c r="G163" s="70" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="164" spans="5:7">
@@ -7087,7 +7101,7 @@
         <v>53</v>
       </c>
       <c r="G164" s="70" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="189" spans="11:11">
@@ -7108,7 +7122,7 @@
         <v>61</v>
       </c>
       <c r="G214" s="70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="215" spans="5:7">
@@ -7120,24 +7134,24 @@
         <v>53</v>
       </c>
       <c r="G215" s="70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="216" spans="5:7">
       <c r="G216" s="70" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="218" spans="5:7">
       <c r="E218" s="70">
-        <f>E215/E74</f>
+        <f>E215/E75</f>
         <v>1.4301001459934731E-3</v>
       </c>
       <c r="F218" s="70" t="s">
         <v>63</v>
       </c>
       <c r="G218" s="70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="219" spans="5:7">
@@ -7149,7 +7163,7 @@
         <v>81</v>
       </c>
       <c r="G219" s="70" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="242" spans="5:7">
@@ -7157,10 +7171,10 @@
         <v>96755555</v>
       </c>
       <c r="F242" s="70" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G242" s="70" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="243" spans="5:7">
@@ -7172,12 +7186,12 @@
         <v>20</v>
       </c>
       <c r="G243" s="70" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="250" spans="5:7">
       <c r="F250" s="70" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="257" spans="5:7">
@@ -7188,7 +7202,7 @@
         <v>61</v>
       </c>
       <c r="G257" s="70" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="258" spans="5:7">
@@ -7200,7 +7214,7 @@
         <v>53</v>
       </c>
       <c r="G258" s="70" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="269" spans="5:7">
@@ -7213,7 +7227,7 @@
     </row>
     <row r="270" spans="5:7">
       <c r="G270" s="70" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/nodes_source_analyses/energy/energy_biomass_gasification_ccs_hydrogen.converter.xlsx
+++ b/nodes_source_analyses/energy/energy_biomass_gasification_ccs_hydrogen.converter.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="-20" windowWidth="19200" windowHeight="23460" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="8760" yWindow="460" windowWidth="19200" windowHeight="17540" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -41,8 +46,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -189,9 +197,6 @@
   </si>
   <si>
     <t>Technical</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Comments</t>
@@ -662,6 +667,10 @@
       <t>full_load_hour</t>
     </r>
   </si>
+  <si>
+    <t>This sheet summarizes all node attributes formatted iThis sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+n the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
+  </si>
 </sst>
 </file>
 
@@ -676,7 +685,7 @@
     <numFmt numFmtId="169" formatCode="0.00000"/>
     <numFmt numFmtId="170" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -864,11 +873,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1483,7 +1487,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1668,7 +1672,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1732,7 +1736,7 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1769,20 +1773,20 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1802,13 +1806,13 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1827,8 +1831,8 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1888,8 +1892,8 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="5" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1912,43 +1916,22 @@
     <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="459">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2421,77 +2404,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>139700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2724,7 +2637,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2837,7 +2750,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Title"/>
@@ -2864,15 +2777,15 @@
       <sheetName val="Title - blank"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
       <sheetData sheetId="9">
         <row r="48">
           <cell r="H48">
@@ -2880,25 +2793,25 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Title"/>
@@ -3289,50 +3202,50 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="22" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="22"/>
+    <col min="1" max="1" width="3.42578125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="22" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="29" customFormat="1">
+    <row r="1" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="30" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
@@ -3341,29 +3254,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="79" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="80"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="81"/>
       <c r="C10" s="82"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="81" t="s">
         <v>28</v>
@@ -3372,33 +3285,33 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="81"/>
       <c r="C12" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="81"/>
       <c r="C13" s="84" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="81"/>
       <c r="C14" s="82" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="81"/>
       <c r="C15" s="82"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="81" t="s">
         <v>33</v>
@@ -3407,49 +3320,49 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="81"/>
       <c r="C17" s="86" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="81"/>
       <c r="C18" s="87" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="81"/>
       <c r="C19" s="88" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="89"/>
       <c r="C20" s="90" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="89"/>
       <c r="C21" s="91" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="89"/>
       <c r="C22" s="92" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="89"/>
       <c r="C23" s="93" t="s">
         <v>41</v>
@@ -3458,88 +3371,83 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B2" sqref="B2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="35" customWidth="1"/>
     <col min="3" max="3" width="36" style="35" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="35" customWidth="1"/>
     <col min="7" max="7" width="34" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="35" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="35"/>
+    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D1" s="36"/>
     </row>
-    <row r="2" spans="1:12">
-      <c r="B2" s="176" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
+    <row r="2" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="177" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
       <c r="E2" s="178"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="B3" s="179"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="B4" s="179"/>
-      <c r="C4" s="180"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="B5" s="182"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="183"/>
-      <c r="E5" s="184"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="177"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="177"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="177"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
       <c r="F6" s="36"/>
       <c r="G6" s="36"/>
     </row>
-    <row r="7" spans="1:12" ht="16" thickBot="1">
+    <row r="7" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D7" s="36"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" s="37"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -3550,7 +3458,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="38"/>
     </row>
-    <row r="9" spans="1:12" s="26" customFormat="1">
+    <row r="9" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24"/>
       <c r="C9" s="16" t="s">
         <v>19</v>
@@ -3571,7 +3479,7 @@
       </c>
       <c r="J9" s="96"/>
     </row>
-    <row r="10" spans="1:12" s="26" customFormat="1">
+    <row r="10" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="25"/>
       <c r="C10" s="13"/>
       <c r="D10" s="33"/>
@@ -3582,7 +3490,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:12" s="26" customFormat="1" ht="16" thickBot="1">
+    <row r="11" spans="1:12" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="25"/>
       <c r="C11" s="13" t="s">
         <v>45</v>
@@ -3595,10 +3503,10 @@
       <c r="I11" s="13"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:12" s="26" customFormat="1" ht="16" thickBot="1">
+    <row r="12" spans="1:12" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="25"/>
       <c r="C12" s="163" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="110">
@@ -3607,19 +3515,19 @@
       </c>
       <c r="F12" s="39"/>
       <c r="G12" s="163" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J12" s="14"/>
       <c r="L12" s="35"/>
     </row>
-    <row r="13" spans="1:12" s="26" customFormat="1" ht="16" thickBot="1">
+    <row r="13" spans="1:12" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="25"/>
       <c r="C13" s="123" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="110">
@@ -3628,20 +3536,20 @@
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="163" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H13" s="32"/>
       <c r="I13" s="125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J13" s="14"/>
       <c r="L13" s="35"/>
     </row>
-    <row r="14" spans="1:12" ht="16" thickBot="1">
+    <row r="14" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="25"/>
       <c r="C14" s="163" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="110">
@@ -3650,20 +3558,20 @@
       </c>
       <c r="F14" s="39"/>
       <c r="G14" s="163" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H14" s="32"/>
       <c r="I14" s="125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="26"/>
     </row>
-    <row r="15" spans="1:12" ht="16" thickBot="1">
+    <row r="15" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="25"/>
       <c r="C15" s="123" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>2</v>
@@ -3674,23 +3582,23 @@
       </c>
       <c r="F15" s="39"/>
       <c r="G15" s="123" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H15" s="32"/>
       <c r="I15" s="125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J15" s="14"/>
       <c r="K15" s="26"/>
     </row>
-    <row r="16" spans="1:12" ht="16" thickBot="1">
+    <row r="16" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="126"/>
       <c r="B16" s="127"/>
       <c r="C16" s="175" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="110">
         <f>'Research data'!H11</f>
@@ -3698,20 +3606,20 @@
       </c>
       <c r="F16" s="123"/>
       <c r="G16" s="175" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H16" s="123"/>
       <c r="I16" s="125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J16" s="129"/>
       <c r="K16" s="36"/>
     </row>
-    <row r="17" spans="1:11" ht="16" thickBot="1">
+    <row r="17" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="126"/>
       <c r="B17" s="127"/>
       <c r="C17" s="123" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>2</v>
@@ -3723,15 +3631,15 @@
       <c r="G17" s="123"/>
       <c r="H17" s="123"/>
       <c r="I17" s="125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J17" s="129"/>
       <c r="K17" s="36"/>
     </row>
-    <row r="18" spans="1:11" ht="16" thickBot="1">
+    <row r="18" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="127"/>
       <c r="C18" s="123" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>2</v>
@@ -3744,11 +3652,11 @@
       <c r="G18" s="123"/>
       <c r="H18" s="123"/>
       <c r="I18" s="125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J18" s="129"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B19" s="40"/>
       <c r="D19" s="36"/>
       <c r="E19" s="36"/>
@@ -3758,7 +3666,7 @@
       <c r="I19" s="36"/>
       <c r="J19" s="97"/>
     </row>
-    <row r="20" spans="1:11" ht="16" thickBot="1">
+    <row r="20" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="40"/>
       <c r="C20" s="13" t="s">
         <v>44</v>
@@ -3771,7 +3679,7 @@
       <c r="I20" s="36"/>
       <c r="J20" s="97"/>
     </row>
-    <row r="21" spans="1:11" ht="16" thickBot="1">
+    <row r="21" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="40"/>
       <c r="C21" s="39" t="s">
         <v>22</v>
@@ -3789,17 +3697,17 @@
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J21" s="97"/>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" thickBot="1">
+    <row r="22" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="40"/>
       <c r="C22" s="39" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E22" s="41">
         <f>'Research data'!H31</f>
@@ -3811,17 +3719,17 @@
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J22" s="97"/>
     </row>
-    <row r="23" spans="1:11" ht="16" thickBot="1">
+    <row r="23" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="156"/>
-      <c r="C23" s="185" t="s">
-        <v>179</v>
+      <c r="C23" s="176" t="s">
+        <v>178</v>
       </c>
       <c r="D23" s="158" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E23" s="110">
         <f>'Research data'!H24</f>
@@ -3829,21 +3737,21 @@
       </c>
       <c r="F23" s="159"/>
       <c r="G23" s="157" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H23" s="159"/>
       <c r="I23" s="125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J23" s="160"/>
     </row>
-    <row r="24" spans="1:11" ht="16" thickBot="1">
+    <row r="24" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="156"/>
       <c r="C24" s="165" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D24" s="158" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E24" s="110">
         <f>'Research data'!H25</f>
@@ -3851,19 +3759,19 @@
       </c>
       <c r="F24" s="159"/>
       <c r="G24" s="165" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H24" s="159"/>
       <c r="I24" s="125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J24" s="160"/>
     </row>
-    <row r="25" spans="1:11" ht="16" thickBot="1">
+    <row r="25" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="162"/>
       <c r="B25" s="164"/>
       <c r="C25" s="165" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D25" s="158" t="s">
         <v>20</v>
@@ -3874,20 +3782,20 @@
       </c>
       <c r="F25" s="165"/>
       <c r="G25" s="165" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H25" s="165"/>
       <c r="I25" s="125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J25" s="166"/>
       <c r="K25" s="162"/>
     </row>
-    <row r="26" spans="1:11" ht="16" thickBot="1">
+    <row r="26" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="162"/>
       <c r="B26" s="164"/>
       <c r="C26" s="165" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D26" s="158" t="s">
         <v>20</v>
@@ -3898,20 +3806,20 @@
       </c>
       <c r="F26" s="165"/>
       <c r="G26" s="165" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H26" s="165"/>
       <c r="I26" s="125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J26" s="166"/>
       <c r="K26" s="162"/>
     </row>
-    <row r="27" spans="1:11" ht="16" thickBot="1">
+    <row r="27" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="162"/>
       <c r="B27" s="164"/>
-      <c r="C27" s="185" t="s">
-        <v>178</v>
+      <c r="C27" s="176" t="s">
+        <v>177</v>
       </c>
       <c r="D27" s="158" t="s">
         <v>20</v>
@@ -3922,23 +3830,23 @@
       </c>
       <c r="F27" s="165"/>
       <c r="G27" s="165" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H27" s="165"/>
       <c r="I27" s="125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J27" s="166"/>
       <c r="K27" s="162"/>
     </row>
-    <row r="28" spans="1:11" ht="16" thickBot="1">
+    <row r="28" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="162"/>
       <c r="B28" s="164"/>
       <c r="C28" s="165" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D28" s="158" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E28" s="110">
         <f>'Research data'!H29</f>
@@ -3946,43 +3854,43 @@
       </c>
       <c r="F28" s="165"/>
       <c r="G28" s="163" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H28" s="165"/>
       <c r="I28" s="125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J28" s="166"/>
       <c r="K28" s="162"/>
     </row>
-    <row r="29" spans="1:11" ht="16" thickBot="1">
+    <row r="29" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="126"/>
       <c r="B29" s="127"/>
       <c r="C29" s="123" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="23" t="s">
         <v>82</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>83</v>
       </c>
       <c r="E29" s="130">
         <v>0.1</v>
       </c>
       <c r="F29" s="123"/>
       <c r="G29" s="123" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H29" s="123"/>
       <c r="I29" s="125"/>
       <c r="J29" s="129"/>
     </row>
-    <row r="30" spans="1:11" ht="16" thickBot="1">
+    <row r="30" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="126"/>
       <c r="B30" s="127"/>
       <c r="C30" s="123" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="23" t="s">
         <v>85</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>86</v>
       </c>
       <c r="E30" s="130">
         <v>1</v>
@@ -3993,7 +3901,7 @@
       <c r="I30" s="125"/>
       <c r="J30" s="129"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="126"/>
       <c r="B31" s="127"/>
       <c r="C31" s="123"/>
@@ -4005,7 +3913,7 @@
       <c r="I31" s="131"/>
       <c r="J31" s="129"/>
     </row>
-    <row r="32" spans="1:11" ht="16" thickBot="1">
+    <row r="32" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="126"/>
       <c r="B32" s="127"/>
       <c r="C32" s="13" t="s">
@@ -4018,7 +3926,7 @@
       <c r="I32" s="131"/>
       <c r="J32" s="129"/>
     </row>
-    <row r="33" spans="1:10" ht="16" thickBot="1">
+    <row r="33" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="126"/>
       <c r="B33" s="127"/>
       <c r="C33" s="123" t="s">
@@ -4033,19 +3941,19 @@
       </c>
       <c r="F33" s="123"/>
       <c r="G33" s="123" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H33" s="123"/>
       <c r="I33" s="125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J33" s="129"/>
     </row>
-    <row r="34" spans="1:10" ht="16" thickBot="1">
+    <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="126"/>
       <c r="B34" s="127"/>
       <c r="C34" s="123" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D34" s="23" t="s">
         <v>1</v>
@@ -4056,22 +3964,22 @@
       </c>
       <c r="F34" s="123"/>
       <c r="G34" s="123" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H34" s="123"/>
       <c r="I34" s="125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J34" s="129"/>
     </row>
-    <row r="35" spans="1:10" ht="16" thickBot="1">
+    <row r="35" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="126"/>
       <c r="B35" s="127"/>
       <c r="C35" s="123" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="23" t="s">
         <v>87</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>88</v>
       </c>
       <c r="E35" s="150">
         <f>'Research data'!H36</f>
@@ -4079,15 +3987,15 @@
       </c>
       <c r="F35" s="123"/>
       <c r="G35" s="123" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H35" s="123"/>
       <c r="I35" s="125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J35" s="129"/>
     </row>
-    <row r="36" spans="1:10" ht="16" thickBot="1">
+    <row r="36" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="126"/>
       <c r="B36" s="127"/>
       <c r="C36" s="123" t="s">
@@ -4106,7 +4014,7 @@
       <c r="I36" s="125"/>
       <c r="J36" s="129"/>
     </row>
-    <row r="37" spans="1:10" ht="16" thickBot="1">
+    <row r="37" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="126"/>
       <c r="B37" s="134"/>
       <c r="C37" s="135"/>
@@ -4118,7 +4026,7 @@
       <c r="I37" s="135"/>
       <c r="J37" s="136"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="126"/>
       <c r="B38" s="126"/>
       <c r="C38" s="126"/>
@@ -4130,7 +4038,7 @@
       <c r="I38" s="126"/>
       <c r="J38" s="126"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="126"/>
       <c r="B39" s="126"/>
       <c r="C39" s="126"/>
@@ -4142,7 +4050,7 @@
       <c r="I39" s="126"/>
       <c r="J39" s="126"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="126"/>
       <c r="B40" s="126"/>
       <c r="C40" s="126"/>
@@ -4154,7 +4062,7 @@
       <c r="I40" s="126"/>
       <c r="J40" s="126"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="126"/>
       <c r="B41" s="126"/>
       <c r="E41" s="126"/>
@@ -4164,7 +4072,7 @@
       <c r="I41" s="126"/>
       <c r="J41" s="126"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="126"/>
       <c r="B42" s="126"/>
       <c r="C42" s="126"/>
@@ -4176,7 +4084,7 @@
       <c r="I42" s="126"/>
       <c r="J42" s="126"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="126"/>
       <c r="B43" s="126"/>
       <c r="C43" s="126"/>
@@ -4188,7 +4096,7 @@
       <c r="I43" s="126"/>
       <c r="J43" s="126"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="126"/>
       <c r="B44" s="126"/>
       <c r="C44" s="126"/>
@@ -4200,7 +4108,7 @@
       <c r="I44" s="126"/>
       <c r="J44" s="126"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="126"/>
       <c r="B45" s="126"/>
       <c r="C45" s="126"/>
@@ -4212,55 +4120,18 @@
       <c r="I45" s="126"/>
       <c r="J45" s="126"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="126"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E5"/>
+    <mergeCell ref="B2:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>419100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>139700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>63500</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4275,33 +4146,33 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="42" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="42" customWidth="1"/>
     <col min="2" max="2" width="3" style="42" customWidth="1"/>
-    <col min="3" max="3" width="34.375" style="42" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="42" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="42" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="42" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="42" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="42" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="42" customWidth="1"/>
     <col min="7" max="7" width="3" style="42" customWidth="1"/>
-    <col min="8" max="8" width="14.875" style="42" customWidth="1"/>
-    <col min="9" max="9" width="2.625" style="42" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="42" customWidth="1"/>
-    <col min="11" max="11" width="2.5" style="42" customWidth="1"/>
-    <col min="12" max="12" width="15.875" style="42" customWidth="1"/>
-    <col min="13" max="13" width="2.375" style="42" customWidth="1"/>
-    <col min="14" max="14" width="14.875" style="42" customWidth="1"/>
-    <col min="15" max="15" width="2.125" style="42" customWidth="1"/>
-    <col min="16" max="16" width="9.125" style="42" customWidth="1"/>
-    <col min="17" max="17" width="23.375" style="42" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="42" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" style="42" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="42" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" style="42" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="42" customWidth="1"/>
+    <col min="13" max="13" width="2.42578125" style="42" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="42" customWidth="1"/>
+    <col min="15" max="15" width="2.140625" style="42" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="42" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="42" customWidth="1"/>
     <col min="18" max="18" width="11" style="42" customWidth="1"/>
-    <col min="19" max="19" width="2.5" style="42" customWidth="1"/>
-    <col min="20" max="20" width="22.375" style="42" customWidth="1"/>
-    <col min="21" max="16384" width="10.625" style="42"/>
+    <col min="19" max="19" width="2.42578125" style="42" customWidth="1"/>
+    <col min="20" max="20" width="22.42578125" style="42" customWidth="1"/>
+    <col min="21" max="16384" width="10.7109375" style="42"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" ht="16" thickBot="1"/>
-    <row r="3" spans="1:20">
+    <row r="2" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B3" s="43"/>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
@@ -4322,7 +4193,7 @@
       <c r="S3" s="44"/>
       <c r="T3" s="44"/>
     </row>
-    <row r="4" spans="1:20" s="26" customFormat="1">
+    <row r="4" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="25"/>
       <c r="C4" s="94" t="s">
         <v>19</v>
@@ -4334,27 +4205,27 @@
       </c>
       <c r="G4" s="94"/>
       <c r="H4" s="94" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I4" s="94"/>
       <c r="J4" s="94" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K4" s="94"/>
       <c r="L4" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M4" s="94"/>
       <c r="N4" s="94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O4" s="94"/>
       <c r="P4" s="94"/>
       <c r="Q4" s="94" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="18" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="45"/>
       <c r="C5" s="52"/>
       <c r="D5" s="52"/>
@@ -4370,7 +4241,7 @@
       <c r="N5" s="51"/>
       <c r="Q5" s="57"/>
     </row>
-    <row r="6" spans="1:20" ht="18" customHeight="1" thickBot="1">
+    <row r="6" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="45"/>
       <c r="C6" s="12" t="s">
         <v>45</v>
@@ -4390,10 +4261,10 @@
       <c r="P6" s="46"/>
       <c r="Q6" s="55"/>
     </row>
-    <row r="7" spans="1:20" ht="16" thickBot="1">
+    <row r="7" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="45"/>
       <c r="C7" s="124" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="53"/>
       <c r="E7" s="53"/>
@@ -4416,10 +4287,10 @@
       <c r="P7" s="46"/>
       <c r="Q7" s="122"/>
     </row>
-    <row r="8" spans="1:20" ht="16" thickBot="1">
+    <row r="8" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="45"/>
       <c r="C8" s="124" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="53"/>
       <c r="E8" s="53"/>
@@ -4442,10 +4313,10 @@
       <c r="P8" s="46"/>
       <c r="Q8" s="122"/>
     </row>
-    <row r="9" spans="1:20" ht="16" thickBot="1">
+    <row r="9" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="45"/>
       <c r="C9" s="161" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D9" s="53"/>
       <c r="E9" s="53"/>
@@ -4468,10 +4339,10 @@
       <c r="P9" s="46"/>
       <c r="Q9" s="122"/>
     </row>
-    <row r="10" spans="1:20" ht="16" thickBot="1">
+    <row r="10" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="45"/>
       <c r="C10" s="124" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="53"/>
       <c r="E10" s="53"/>
@@ -4496,15 +4367,15 @@
       <c r="P10" s="46"/>
       <c r="Q10" s="122"/>
     </row>
-    <row r="11" spans="1:20" ht="16" thickBot="1">
+    <row r="11" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="45"/>
       <c r="C11" s="174" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D11" s="53"/>
       <c r="E11" s="53"/>
       <c r="F11" s="138" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G11" s="95"/>
       <c r="H11" s="109">
@@ -4523,11 +4394,11 @@
       <c r="P11" s="46"/>
       <c r="Q11" s="122"/>
     </row>
-    <row r="12" spans="1:20" ht="16" thickBot="1">
+    <row r="12" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="126"/>
       <c r="B12" s="127"/>
       <c r="C12" s="123" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" s="53"/>
       <c r="E12" s="53"/>
@@ -4553,11 +4424,11 @@
       <c r="Q12" s="126"/>
       <c r="R12" s="126"/>
     </row>
-    <row r="13" spans="1:20" ht="16" thickBot="1">
+    <row r="13" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="126"/>
       <c r="B13" s="127"/>
       <c r="C13" s="153" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -4579,11 +4450,11 @@
       <c r="Q13" s="126"/>
       <c r="R13" s="126"/>
     </row>
-    <row r="14" spans="1:20" ht="16" thickBot="1">
+    <row r="14" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="126"/>
       <c r="B14" s="127"/>
       <c r="C14" s="153" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
@@ -4604,11 +4475,11 @@
       <c r="Q14" s="126"/>
       <c r="R14" s="126"/>
     </row>
-    <row r="15" spans="1:20" ht="16" thickBot="1">
+    <row r="15" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="126"/>
       <c r="B15" s="127"/>
       <c r="C15" s="153" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="34"/>
@@ -4629,11 +4500,11 @@
       <c r="Q15" s="126"/>
       <c r="R15" s="126"/>
     </row>
-    <row r="16" spans="1:20" ht="16" thickBot="1">
+    <row r="16" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="126"/>
       <c r="B16" s="127"/>
       <c r="C16" s="153" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D16" s="124"/>
       <c r="E16" s="124"/>
@@ -4654,7 +4525,7 @@
       <c r="Q16" s="126"/>
       <c r="R16" s="126"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B17" s="45"/>
       <c r="C17" s="53"/>
       <c r="D17" s="124"/>
@@ -4671,7 +4542,7 @@
       <c r="P17" s="46"/>
       <c r="Q17" s="58"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="126"/>
       <c r="B18" s="127"/>
       <c r="C18" s="34"/>
@@ -4685,7 +4556,7 @@
       <c r="P18" s="46"/>
       <c r="Q18" s="57"/>
     </row>
-    <row r="19" spans="1:17" ht="16" thickBot="1">
+    <row r="19" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="126"/>
       <c r="B19" s="127"/>
       <c r="C19" s="12" t="s">
@@ -4701,11 +4572,11 @@
       <c r="P19" s="50"/>
       <c r="Q19" s="122"/>
     </row>
-    <row r="20" spans="1:17" ht="16" thickBot="1">
+    <row r="20" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="126"/>
       <c r="B20" s="127"/>
       <c r="C20" s="143" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D20" s="137"/>
       <c r="E20" s="137"/>
@@ -4728,14 +4599,14 @@
       <c r="P20" s="50"/>
       <c r="Q20" s="122"/>
     </row>
-    <row r="21" spans="1:17" ht="16" thickBot="1">
+    <row r="21" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="126"/>
       <c r="B21" s="127"/>
       <c r="C21" s="143" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F21" s="145" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H21" s="139">
         <f>N21</f>
@@ -4749,14 +4620,14 @@
         <v>9516558.2877959926</v>
       </c>
       <c r="Q21" s="148" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="16" thickBot="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="126"/>
       <c r="B22" s="127"/>
       <c r="C22" s="143" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F22" s="145" t="s">
         <v>20</v>
@@ -4773,17 +4644,17 @@
         <v>8758652.0947176684</v>
       </c>
       <c r="Q22" s="148" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="16" thickBot="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="126"/>
       <c r="B23" s="127"/>
       <c r="C23" s="143" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F23" s="138" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H23" s="155">
         <f>N23</f>
@@ -4797,17 +4668,17 @@
         <v>1.4301001459934731E-3</v>
       </c>
       <c r="Q23" s="148" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="16" thickBot="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="126"/>
       <c r="B24" s="127"/>
       <c r="C24" s="143" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F24" s="138" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="154">
         <f>Notes!E219</f>
@@ -4821,17 +4692,17 @@
         <v>1110.9401439266449</v>
       </c>
       <c r="Q24" s="148" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="16" thickBot="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="126"/>
       <c r="B25" s="127"/>
       <c r="C25" s="123" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="123" t="s">
         <v>102</v>
-      </c>
-      <c r="F25" s="123" t="s">
-        <v>103</v>
       </c>
       <c r="H25" s="144">
         <f>N25</f>
@@ -4848,11 +4719,11 @@
       </c>
       <c r="Q25" s="58"/>
     </row>
-    <row r="26" spans="1:17" ht="16" thickBot="1">
+    <row r="26" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="126"/>
       <c r="B26" s="127"/>
       <c r="C26" s="163" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F26" s="163" t="s">
         <v>20</v>
@@ -4872,11 +4743,11 @@
       </c>
       <c r="Q26" s="58"/>
     </row>
-    <row r="27" spans="1:17" ht="16" thickBot="1">
+    <row r="27" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="126"/>
       <c r="B27" s="127"/>
       <c r="C27" s="163" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F27" s="163" t="s">
         <v>20</v>
@@ -4895,14 +4766,14 @@
         <v>0</v>
       </c>
       <c r="Q27" s="167" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="16" thickBot="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="126"/>
       <c r="B28" s="127"/>
       <c r="C28" s="163" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F28" s="163" t="s">
         <v>20</v>
@@ -4922,14 +4793,14 @@
       </c>
       <c r="Q28" s="58"/>
     </row>
-    <row r="29" spans="1:17" ht="16" thickBot="1">
+    <row r="29" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="126"/>
       <c r="B29" s="127"/>
       <c r="C29" s="165" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F29" s="163" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H29" s="144">
         <f t="shared" si="0"/>
@@ -4944,17 +4815,17 @@
         <v>0</v>
       </c>
       <c r="Q29" s="167" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="16" thickBot="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="126"/>
       <c r="B30" s="127"/>
       <c r="C30" s="163" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F30" s="163" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H30" s="144">
         <f t="shared" si="0"/>
@@ -4971,14 +4842,14 @@
       </c>
       <c r="Q30" s="58"/>
     </row>
-    <row r="31" spans="1:17" ht="16" thickBot="1">
+    <row r="31" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="126"/>
       <c r="B31" s="127"/>
       <c r="C31" s="163" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F31" s="163" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H31" s="144">
         <f>H30+H21</f>
@@ -4992,11 +4863,11 @@
       <c r="N31" s="144"/>
       <c r="Q31" s="58"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B32" s="45"/>
       <c r="Q32" s="49"/>
     </row>
-    <row r="33" spans="1:17" ht="16" thickBot="1">
+    <row r="33" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="126"/>
       <c r="B33" s="127"/>
       <c r="C33" s="34" t="s">
@@ -5014,7 +4885,7 @@
       <c r="P33" s="46"/>
       <c r="Q33" s="58"/>
     </row>
-    <row r="34" spans="1:17" ht="16" thickBot="1">
+    <row r="34" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="126"/>
       <c r="B34" s="127"/>
       <c r="C34" s="142" t="s">
@@ -5040,11 +4911,11 @@
       <c r="P34" s="46"/>
       <c r="Q34" s="148"/>
     </row>
-    <row r="35" spans="1:17" ht="16" thickBot="1">
+    <row r="35" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="126"/>
       <c r="B35" s="127"/>
       <c r="C35" s="124" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F35" s="138" t="s">
         <v>1</v>
@@ -5066,14 +4937,14 @@
       <c r="P35" s="46"/>
       <c r="Q35" s="148"/>
     </row>
-    <row r="36" spans="1:17" ht="16" thickBot="1">
+    <row r="36" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="126"/>
       <c r="B36" s="127"/>
       <c r="C36" s="137" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F36" s="138" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H36" s="149">
         <f>N36</f>
@@ -5091,10 +4962,10 @@
       <c r="O36" s="46"/>
       <c r="P36" s="46"/>
       <c r="Q36" s="148" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="16" thickBot="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="126"/>
       <c r="B37" s="127"/>
       <c r="C37" s="107" t="s">
@@ -5110,51 +4981,51 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="16" thickBot="1">
+    <row r="38" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="126"/>
       <c r="B38" s="127"/>
       <c r="C38" s="153" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H38" s="130">
         <v>442800</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="16" thickBot="1">
+    <row r="39" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="126"/>
       <c r="B39" s="127"/>
       <c r="C39" s="153" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H39" s="130">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="16" thickBot="1">
+    <row r="40" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="126"/>
       <c r="B40" s="127"/>
       <c r="C40" s="153" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H40" s="130">
         <v>2835000</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="16" thickBot="1">
+    <row r="41" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="126"/>
       <c r="B41" s="127"/>
       <c r="C41" s="153" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H41" s="130">
         <v>534600</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="16" thickBot="1">
+    <row r="42" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="126"/>
       <c r="B42" s="127"/>
       <c r="C42" s="153" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H42" s="130">
         <v>354600</v>
@@ -5163,11 +5034,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5182,22 +5048,22 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="60" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="60" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="60" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="60" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="60" customWidth="1"/>
-    <col min="6" max="7" width="13.125" style="60" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="65" customWidth="1"/>
-    <col min="9" max="9" width="31.5" style="65" customWidth="1"/>
-    <col min="10" max="10" width="98.375" style="60" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="60"/>
+    <col min="1" max="1" width="3.42578125" style="60" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="60" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="60" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="60" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="60" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="60" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="65" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" style="65" customWidth="1"/>
+    <col min="10" max="10" width="98.42578125" style="60" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="61"/>
       <c r="C2" s="62"/>
       <c r="D2" s="62"/>
@@ -5208,7 +5074,7 @@
       <c r="I2" s="66"/>
       <c r="J2" s="62"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="63"/>
       <c r="C3" s="13" t="s">
         <v>15</v>
@@ -5221,7 +5087,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="59"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="63"/>
       <c r="C4" s="59"/>
       <c r="D4" s="59"/>
@@ -5232,7 +5098,7 @@
       <c r="I4" s="67"/>
       <c r="J4" s="59"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="68"/>
       <c r="C5" s="15" t="s">
         <v>16</v>
@@ -5247,19 +5113,19 @@
         <v>17</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="63"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -5270,16 +5136,16 @@
       <c r="I6" s="18"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="63"/>
       <c r="C7" s="146" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="131" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E7" s="131" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7" s="59">
         <v>2015</v>
@@ -5291,16 +5157,16 @@
         <v>42328</v>
       </c>
       <c r="I7" s="103" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J7" s="47" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="63"/>
       <c r="C8" s="126" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="59"/>
       <c r="E8" s="59"/>
@@ -5310,10 +5176,10 @@
       <c r="I8" s="59"/>
       <c r="J8" s="59"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="63"/>
       <c r="C9" s="162" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D9" s="111"/>
       <c r="E9" s="111"/>
@@ -5322,7 +5188,7 @@
       <c r="H9" s="106"/>
       <c r="I9" s="59"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="63"/>
       <c r="C10" s="69"/>
       <c r="D10" s="59"/>
@@ -5333,7 +5199,7 @@
       <c r="I10" s="103"/>
       <c r="J10" s="102"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="63"/>
       <c r="E11" s="111"/>
       <c r="F11" s="59"/>
@@ -5342,16 +5208,16 @@
       <c r="I11" s="131"/>
       <c r="J11" s="101"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="63"/>
       <c r="C12" s="146" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D12" s="126" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E12" s="131" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F12" s="59">
         <v>2015</v>
@@ -5363,34 +5229,34 @@
         <v>42328</v>
       </c>
       <c r="I12" s="131" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J12" s="59" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="63"/>
       <c r="C13" s="126" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="63"/>
       <c r="C14" s="126" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="63"/>
       <c r="C15" s="146" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="63"/>
       <c r="C16" s="147" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="59"/>
       <c r="E16" s="59"/>
@@ -5400,10 +5266,10 @@
       <c r="I16" s="59"/>
       <c r="J16" s="59"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="63"/>
       <c r="C17" s="146" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D17" s="59"/>
       <c r="E17" s="59"/>
@@ -5413,10 +5279,10 @@
       <c r="I17" s="103"/>
       <c r="J17" s="59"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="63"/>
       <c r="C18" s="162" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D18" s="59"/>
       <c r="E18" s="59"/>
@@ -5426,50 +5292,45 @@
       <c r="I18" s="59"/>
       <c r="J18" s="59"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C19" s="146" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C20" s="162" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C21" s="165" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C22" s="165" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C23" s="165" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C24" s="165" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C25" s="168" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5484,23 +5345,23 @@
       <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="70" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="70" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="70" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="70" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="70" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="70" customWidth="1"/>
     <col min="4" max="4" width="4" style="70" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="70" customWidth="1"/>
-    <col min="6" max="6" width="6.125" style="70" customWidth="1"/>
-    <col min="7" max="12" width="10.625" style="70"/>
-    <col min="13" max="13" width="19.5" style="70" customWidth="1"/>
-    <col min="14" max="14" width="8.875" style="70" customWidth="1"/>
-    <col min="15" max="15" width="55.5" style="70" customWidth="1"/>
-    <col min="16" max="16384" width="10.625" style="70"/>
+    <col min="5" max="5" width="13.140625" style="70" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="70" customWidth="1"/>
+    <col min="7" max="12" width="10.7109375" style="70"/>
+    <col min="13" max="13" width="19.42578125" style="70" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="70" customWidth="1"/>
+    <col min="15" max="15" width="55.42578125" style="70" customWidth="1"/>
+    <col min="16" max="16384" width="10.7109375" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16" thickBot="1"/>
-    <row r="2" spans="1:15">
+    <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2" s="71"/>
       <c r="C2" s="72"/>
       <c r="D2" s="72"/>
@@ -5515,14 +5376,14 @@
       <c r="M2" s="72"/>
       <c r="N2" s="73"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="74"/>
       <c r="B3" s="99"/>
       <c r="C3" s="78" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" s="78" t="s">
         <v>26</v>
@@ -5537,7 +5398,7 @@
       <c r="M3" s="75"/>
       <c r="N3" s="100"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="76"/>
       <c r="C4" s="77"/>
       <c r="D4" s="77"/>
@@ -5553,7 +5414,7 @@
       <c r="N4" s="77"/>
       <c r="O4" s="77"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="76"/>
       <c r="D5" s="77"/>
       <c r="E5" s="77"/>
@@ -5568,10 +5429,10 @@
       <c r="N5" s="77"/>
       <c r="O5" s="77"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="76"/>
       <c r="C6" s="70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" s="77"/>
       <c r="G6" s="77"/>
@@ -5584,10 +5445,10 @@
       <c r="N6" s="77"/>
       <c r="O6" s="77"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="76"/>
       <c r="C7" s="70" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="77"/>
       <c r="E7" s="77"/>
@@ -5602,10 +5463,10 @@
       <c r="N7" s="77"/>
       <c r="O7" s="77"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="76"/>
       <c r="C8" s="77" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" s="77"/>
       <c r="E8" s="77"/>
@@ -5620,10 +5481,10 @@
       <c r="N8" s="77"/>
       <c r="O8" s="77"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="76"/>
       <c r="C9" s="77" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D9" s="77"/>
       <c r="E9" s="77"/>
@@ -5638,10 +5499,10 @@
       <c r="N9" s="77"/>
       <c r="O9" s="77"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="76"/>
       <c r="C10" s="77" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D10" s="77"/>
       <c r="E10" s="77"/>
@@ -5656,7 +5517,7 @@
       <c r="N10" s="77"/>
       <c r="O10" s="77"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="76"/>
       <c r="D11" s="77"/>
       <c r="E11" s="77"/>
@@ -5671,10 +5532,10 @@
       <c r="N11" s="77"/>
       <c r="O11" s="77"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="76"/>
       <c r="C12" s="70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" s="77"/>
       <c r="E12" s="77"/>
@@ -5689,10 +5550,10 @@
       <c r="N12" s="77"/>
       <c r="O12" s="77"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13" s="76"/>
       <c r="C13" s="70" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D13" s="77"/>
       <c r="E13" s="77"/>
@@ -5707,10 +5568,10 @@
       <c r="N13" s="77"/>
       <c r="O13" s="77"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="76"/>
       <c r="C14" s="70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D14" s="77"/>
       <c r="E14" s="77"/>
@@ -5725,10 +5586,10 @@
       <c r="N14" s="77"/>
       <c r="O14" s="77"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B15" s="76"/>
       <c r="C15" s="70" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D15" s="77"/>
       <c r="E15" s="77"/>
@@ -5743,7 +5604,7 @@
       <c r="N15" s="77"/>
       <c r="O15" s="77"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B16" s="76"/>
       <c r="C16" s="77"/>
       <c r="D16" s="77"/>
@@ -5759,7 +5620,7 @@
       <c r="N16" s="77"/>
       <c r="O16" s="77"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="76"/>
       <c r="C17" s="77"/>
       <c r="D17" s="77"/>
@@ -5771,7 +5632,7 @@
       <c r="N17" s="77"/>
       <c r="O17" s="77"/>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="76"/>
       <c r="C18" s="77"/>
       <c r="D18" s="77"/>
@@ -5783,7 +5644,7 @@
       <c r="N18" s="77"/>
       <c r="O18" s="77"/>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="76"/>
       <c r="C19" s="77"/>
       <c r="D19" s="77"/>
@@ -5799,7 +5660,7 @@
       <c r="N19" s="77"/>
       <c r="O19" s="77"/>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="76"/>
       <c r="C20" s="77"/>
       <c r="D20" s="77"/>
@@ -5815,7 +5676,7 @@
       <c r="N20" s="77"/>
       <c r="O20" s="77"/>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="76"/>
       <c r="C21" s="77"/>
       <c r="D21" s="77"/>
@@ -5831,7 +5692,7 @@
       <c r="N21" s="77"/>
       <c r="O21" s="77"/>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="76"/>
       <c r="C22" s="77"/>
       <c r="D22" s="77"/>
@@ -5847,7 +5708,7 @@
       <c r="N22" s="77"/>
       <c r="O22" s="77"/>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="76"/>
       <c r="C23" s="77"/>
       <c r="D23" s="77"/>
@@ -5863,7 +5724,7 @@
       <c r="N23" s="77"/>
       <c r="O23" s="77"/>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="76"/>
       <c r="C24" s="77"/>
       <c r="D24" s="77"/>
@@ -5879,7 +5740,7 @@
       <c r="N24" s="77"/>
       <c r="O24" s="77"/>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="76"/>
       <c r="C25" s="77"/>
       <c r="D25" s="77"/>
@@ -5895,7 +5756,7 @@
       <c r="N25" s="77"/>
       <c r="O25" s="77"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="76"/>
       <c r="C26" s="77"/>
       <c r="D26" s="77"/>
@@ -5911,7 +5772,7 @@
       <c r="N26" s="77"/>
       <c r="O26" s="77"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="76"/>
       <c r="C27" s="77"/>
       <c r="D27" s="77"/>
@@ -5919,10 +5780,10 @@
         <v>69728</v>
       </c>
       <c r="F27" s="77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G27" s="77" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H27" s="77"/>
       <c r="I27" s="77"/>
@@ -5933,7 +5794,7 @@
       <c r="N27" s="77"/>
       <c r="O27" s="77"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="76"/>
       <c r="C28" s="77"/>
       <c r="D28" s="77"/>
@@ -5941,10 +5802,10 @@
         <v>1729</v>
       </c>
       <c r="F28" s="77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G28" s="77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H28" s="77"/>
       <c r="I28" s="77"/>
@@ -5955,23 +5816,23 @@
       <c r="N28" s="77"/>
       <c r="O28" s="77"/>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="76"/>
       <c r="C29" s="77">
         <v>34000</v>
       </c>
       <c r="D29" s="77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E29" s="77">
         <f>0.98+2138</f>
         <v>2138.98</v>
       </c>
       <c r="F29" s="77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G29" s="77" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H29" s="77"/>
       <c r="I29" s="77"/>
@@ -5982,7 +5843,7 @@
       <c r="N29" s="77"/>
       <c r="O29" s="77"/>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="76"/>
       <c r="C30" s="77">
         <f>C29/E29*170607</f>
@@ -6001,7 +5862,7 @@
       <c r="N30" s="77"/>
       <c r="O30" s="77"/>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="76"/>
       <c r="C31" s="77">
         <v>113940</v>
@@ -6019,7 +5880,7 @@
       <c r="N31" s="77"/>
       <c r="O31" s="77"/>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" s="76"/>
       <c r="C32" s="77">
         <f>C31/C30</f>
@@ -6032,7 +5893,7 @@
       </c>
       <c r="F32" s="77"/>
       <c r="G32" s="77" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H32" s="77"/>
       <c r="I32" s="77"/>
@@ -6043,7 +5904,7 @@
       <c r="N32" s="77"/>
       <c r="O32" s="77"/>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" s="76"/>
       <c r="C33" s="77"/>
       <c r="E33" s="77">
@@ -6052,7 +5913,7 @@
       </c>
       <c r="F33" s="77"/>
       <c r="G33" s="77" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H33" s="77"/>
       <c r="I33" s="77"/>
@@ -6063,14 +5924,14 @@
       <c r="N33" s="77"/>
       <c r="O33" s="77"/>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="76"/>
       <c r="E34" s="77">
         <f>E29/($E$28+$E$29+$E$27)</f>
         <v>2.9063815713847415E-2</v>
       </c>
       <c r="G34" s="70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H34" s="77"/>
       <c r="I34" s="77"/>
@@ -6081,7 +5942,7 @@
       <c r="N34" s="77"/>
       <c r="O34" s="77"/>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B35" s="76"/>
       <c r="C35" s="77"/>
       <c r="D35" s="77"/>
@@ -6097,7 +5958,7 @@
       <c r="N35" s="77"/>
       <c r="O35" s="77"/>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36" s="76"/>
       <c r="C36" s="77"/>
       <c r="D36" s="77"/>
@@ -6105,10 +5966,10 @@
         <v>44.8</v>
       </c>
       <c r="F36" s="70" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G36" s="70" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H36" s="77"/>
       <c r="I36" s="77"/>
@@ -6119,7 +5980,7 @@
       <c r="N36" s="77"/>
       <c r="O36" s="77"/>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="76"/>
       <c r="C37" s="77"/>
       <c r="D37" s="77"/>
@@ -6129,7 +5990,7 @@
       </c>
       <c r="F37" s="77"/>
       <c r="G37" s="77" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H37" s="104"/>
       <c r="I37" s="77"/>
@@ -6140,7 +6001,7 @@
       <c r="N37" s="77"/>
       <c r="O37" s="77"/>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="76"/>
       <c r="C38" s="77"/>
       <c r="D38" s="77"/>
@@ -6154,7 +6015,7 @@
       <c r="N38" s="77"/>
       <c r="O38" s="77"/>
     </row>
-    <row r="39" spans="2:16" ht="16" thickBot="1">
+    <row r="39" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="76"/>
       <c r="C39" s="77"/>
       <c r="D39" s="77"/>
@@ -6170,7 +6031,7 @@
       <c r="N39" s="77"/>
       <c r="O39" s="77"/>
     </row>
-    <row r="40" spans="2:16">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B40" s="76"/>
       <c r="C40" s="77"/>
       <c r="D40" s="77"/>
@@ -6187,7 +6048,7 @@
       <c r="O40" s="20"/>
       <c r="P40" s="113"/>
     </row>
-    <row r="41" spans="2:16" ht="18">
+    <row r="41" spans="2:16" ht="19" x14ac:dyDescent="0.25">
       <c r="B41" s="76"/>
       <c r="C41" s="77"/>
       <c r="D41" s="77"/>
@@ -6197,7 +6058,7 @@
       <c r="H41" s="77"/>
       <c r="I41" s="114"/>
       <c r="J41" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K41" s="115" t="s">
         <v>8</v>
@@ -6209,14 +6070,14 @@
         <v>7</v>
       </c>
       <c r="N41" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O41" s="15" t="s">
         <v>0</v>
       </c>
       <c r="P41" s="116"/>
     </row>
-    <row r="42" spans="2:16" ht="19" thickBot="1">
+    <row r="42" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="76"/>
       <c r="C42" s="77"/>
       <c r="I42" s="25"/>
@@ -6228,7 +6089,7 @@
       <c r="O42"/>
       <c r="P42" s="117"/>
     </row>
-    <row r="43" spans="2:16" ht="19" thickBot="1">
+    <row r="43" spans="2:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="76"/>
       <c r="C43" s="77"/>
       <c r="E43" s="172">
@@ -6236,33 +6097,33 @@
         <v>1.0980000000000001</v>
       </c>
       <c r="F43" s="70" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G43" s="70" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I43" s="25"/>
       <c r="J43" s="118" t="s">
+        <v>55</v>
+      </c>
+      <c r="K43" s="23" t="s">
         <v>56</v>
-      </c>
-      <c r="K43" s="23" t="s">
-        <v>57</v>
       </c>
       <c r="L43" s="119">
         <v>1.0980000000000001</v>
       </c>
       <c r="M43" s="118" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N43" s="120">
         <v>42221</v>
       </c>
       <c r="O43" s="121" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P43" s="117"/>
     </row>
-    <row r="44" spans="2:16" ht="16" thickBot="1">
+    <row r="44" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="76"/>
       <c r="C44" s="77"/>
       <c r="I44" s="170"/>
@@ -6274,7 +6135,7 @@
       <c r="O44" s="169"/>
       <c r="P44" s="171"/>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B45" s="76"/>
       <c r="C45" s="77"/>
       <c r="K45" s="77"/>
@@ -6283,7 +6144,7 @@
       <c r="N45" s="77"/>
       <c r="O45" s="77"/>
     </row>
-    <row r="46" spans="2:16">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="76"/>
       <c r="C46" s="77"/>
       <c r="E46" s="105"/>
@@ -6294,7 +6155,7 @@
       <c r="N46" s="77"/>
       <c r="O46" s="77"/>
     </row>
-    <row r="47" spans="2:16">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B47" s="76"/>
       <c r="C47" s="77"/>
       <c r="E47" s="77"/>
@@ -6305,10 +6166,10 @@
       <c r="N47" s="77"/>
       <c r="O47" s="77"/>
     </row>
-    <row r="48" spans="2:16">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B48" s="76"/>
       <c r="C48" s="70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K48" s="77"/>
       <c r="L48" s="77"/>
@@ -6316,10 +6177,10 @@
       <c r="N48" s="77"/>
       <c r="O48" s="77"/>
     </row>
-    <row r="49" spans="2:15">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49" s="76"/>
       <c r="C49" s="70" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K49" s="77"/>
       <c r="L49" s="77"/>
@@ -6327,10 +6188,10 @@
       <c r="N49" s="77"/>
       <c r="O49" s="77"/>
     </row>
-    <row r="50" spans="2:15" ht="16">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B50" s="76"/>
       <c r="C50" s="77" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J50"/>
       <c r="K50" s="77"/>
@@ -6339,10 +6200,10 @@
       <c r="N50" s="77"/>
       <c r="O50" s="77"/>
     </row>
-    <row r="51" spans="2:15">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B51" s="76"/>
       <c r="C51" s="77" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D51" s="77"/>
       <c r="K51" s="77"/>
@@ -6351,7 +6212,7 @@
       <c r="N51" s="77"/>
       <c r="O51" s="77"/>
     </row>
-    <row r="52" spans="2:15">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B52" s="76"/>
       <c r="C52" s="77"/>
       <c r="D52" s="77"/>
@@ -6361,10 +6222,10 @@
       <c r="N52" s="77"/>
       <c r="O52" s="77"/>
     </row>
-    <row r="53" spans="2:15">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B53" s="76"/>
       <c r="C53" s="70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D53" s="77"/>
       <c r="K53" s="77"/>
@@ -6373,10 +6234,10 @@
       <c r="N53" s="77"/>
       <c r="O53" s="77"/>
     </row>
-    <row r="54" spans="2:15">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B54" s="76"/>
       <c r="C54" s="70" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K54" s="77"/>
       <c r="L54" s="77"/>
@@ -6384,10 +6245,10 @@
       <c r="N54" s="77"/>
       <c r="O54" s="77"/>
     </row>
-    <row r="55" spans="2:15">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B55" s="76"/>
       <c r="C55" s="70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K55" s="77"/>
       <c r="L55" s="77"/>
@@ -6395,10 +6256,10 @@
       <c r="N55" s="77"/>
       <c r="O55" s="77"/>
     </row>
-    <row r="56" spans="2:15">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B56" s="76"/>
       <c r="C56" s="70" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K56" s="77"/>
       <c r="L56" s="77"/>
@@ -6406,7 +6267,7 @@
       <c r="N56" s="77"/>
       <c r="O56" s="77"/>
     </row>
-    <row r="57" spans="2:15">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B57" s="76"/>
       <c r="D57" s="77"/>
       <c r="K57" s="77"/>
@@ -6415,7 +6276,7 @@
       <c r="N57" s="77"/>
       <c r="O57" s="77"/>
     </row>
-    <row r="58" spans="2:15">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B58" s="76"/>
       <c r="K58" s="77"/>
       <c r="L58" s="77"/>
@@ -6423,7 +6284,7 @@
       <c r="N58" s="77"/>
       <c r="O58" s="77"/>
     </row>
-    <row r="59" spans="2:15">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B59" s="76"/>
       <c r="K59" s="77"/>
       <c r="L59" s="77"/>
@@ -6431,7 +6292,7 @@
       <c r="N59" s="77"/>
       <c r="O59" s="77"/>
     </row>
-    <row r="60" spans="2:15">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B60" s="76"/>
       <c r="K60" s="77"/>
       <c r="L60" s="77"/>
@@ -6439,7 +6300,7 @@
       <c r="N60" s="77"/>
       <c r="O60" s="77"/>
     </row>
-    <row r="61" spans="2:15">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B61" s="76"/>
       <c r="K61" s="77"/>
       <c r="L61" s="77"/>
@@ -6447,7 +6308,7 @@
       <c r="N61" s="77"/>
       <c r="O61" s="77"/>
     </row>
-    <row r="62" spans="2:15">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B62" s="76"/>
       <c r="F62" s="151"/>
       <c r="K62" s="77"/>
@@ -6456,7 +6317,7 @@
       <c r="N62" s="77"/>
       <c r="O62" s="77"/>
     </row>
-    <row r="63" spans="2:15">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B63" s="76"/>
       <c r="K63" s="77"/>
       <c r="L63" s="77"/>
@@ -6464,7 +6325,7 @@
       <c r="N63" s="77"/>
       <c r="O63" s="77"/>
     </row>
-    <row r="64" spans="2:15">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B64" s="76"/>
       <c r="K64" s="77"/>
       <c r="L64" s="77"/>
@@ -6472,16 +6333,16 @@
       <c r="N64" s="77"/>
       <c r="O64" s="77"/>
     </row>
-    <row r="65" spans="2:15">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65" s="76"/>
       <c r="E65" s="152">
         <v>90</v>
       </c>
       <c r="F65" s="70" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G65" s="70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K65" s="77"/>
       <c r="L65" s="77"/>
@@ -6489,14 +6350,14 @@
       <c r="N65" s="77"/>
       <c r="O65" s="77"/>
     </row>
-    <row r="66" spans="2:15">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66" s="76"/>
       <c r="E66" s="70">
         <f>E65/100</f>
         <v>0.9</v>
       </c>
       <c r="G66" s="70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K66" s="77"/>
       <c r="L66" s="77"/>
@@ -6504,17 +6365,17 @@
       <c r="N66" s="77"/>
       <c r="O66" s="77"/>
     </row>
-    <row r="67" spans="2:15">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B67" s="76"/>
       <c r="E67" s="70">
         <f>E66*8760</f>
         <v>7884</v>
       </c>
       <c r="F67" s="70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G67" s="70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K67" s="77"/>
       <c r="L67" s="77"/>
@@ -6522,7 +6383,7 @@
       <c r="N67" s="77"/>
       <c r="O67" s="77"/>
     </row>
-    <row r="68" spans="2:15">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B68" s="76"/>
       <c r="K68" s="77"/>
       <c r="L68" s="77"/>
@@ -6530,14 +6391,14 @@
       <c r="N68" s="77"/>
       <c r="O68" s="77"/>
     </row>
-    <row r="69" spans="2:15">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B69" s="76"/>
       <c r="C69" s="77"/>
       <c r="E69" s="70">
         <v>155236</v>
       </c>
       <c r="F69" s="70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K69" s="77"/>
       <c r="L69" s="77"/>
@@ -6545,7 +6406,7 @@
       <c r="N69" s="77"/>
       <c r="O69" s="77"/>
     </row>
-    <row r="70" spans="2:15">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B70" s="76"/>
       <c r="C70" s="77"/>
       <c r="E70" s="70">
@@ -6553,14 +6414,14 @@
         <v>6468.166666666667</v>
       </c>
       <c r="F70" s="70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L70" s="77"/>
       <c r="M70" s="77"/>
       <c r="N70" s="77"/>
       <c r="O70" s="77"/>
     </row>
-    <row r="71" spans="2:15">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B71" s="76"/>
       <c r="C71" s="77"/>
       <c r="E71" s="70">
@@ -6568,14 +6429,14 @@
         <v>776826.81666666665</v>
       </c>
       <c r="F71" s="70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L71" s="77"/>
       <c r="M71" s="77"/>
       <c r="N71" s="77"/>
       <c r="O71" s="77"/>
     </row>
-    <row r="72" spans="2:15">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B72" s="76"/>
       <c r="C72" s="77"/>
       <c r="E72" s="70">
@@ -6583,17 +6444,17 @@
         <v>215.78522685185183</v>
       </c>
       <c r="F72" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="G72" s="70" t="s">
         <v>71</v>
-      </c>
-      <c r="G72" s="70" t="s">
-        <v>72</v>
       </c>
       <c r="L72" s="77"/>
       <c r="M72" s="77"/>
       <c r="N72" s="77"/>
       <c r="O72" s="77"/>
     </row>
-    <row r="73" spans="2:15">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B73" s="76"/>
       <c r="C73" s="77"/>
       <c r="E73" s="70">
@@ -6601,10 +6462,10 @@
         <v>481.66345279431215</v>
       </c>
       <c r="F73" s="70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G73" s="70" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K73" s="77"/>
       <c r="L73" s="77"/>
@@ -6612,7 +6473,7 @@
       <c r="N73" s="77"/>
       <c r="O73" s="77"/>
     </row>
-    <row r="74" spans="2:15">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B74" s="76"/>
       <c r="C74" s="77"/>
       <c r="K74" s="77"/>
@@ -6621,17 +6482,17 @@
       <c r="N74" s="77"/>
       <c r="O74" s="77"/>
     </row>
-    <row r="75" spans="2:15">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B75" s="76"/>
       <c r="E75" s="70">
         <f>E71*E67</f>
         <v>6124502622.5999994</v>
       </c>
       <c r="F75" s="70" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G75" s="70" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K75" s="77"/>
       <c r="L75" s="77"/>
@@ -6639,310 +6500,310 @@
       <c r="N75" s="77"/>
       <c r="O75" s="77"/>
     </row>
-    <row r="76" spans="2:15">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B76" s="76"/>
       <c r="L76" s="77"/>
       <c r="M76" s="77"/>
       <c r="N76" s="77"/>
       <c r="O76" s="77"/>
     </row>
-    <row r="77" spans="2:15">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B77" s="76"/>
       <c r="N77" s="77"/>
       <c r="O77" s="77"/>
     </row>
-    <row r="78" spans="2:15">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B78" s="76"/>
       <c r="N78" s="77"/>
       <c r="O78" s="77"/>
     </row>
-    <row r="79" spans="2:15">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="76"/>
       <c r="N79" s="77"/>
       <c r="O79" s="77"/>
     </row>
-    <row r="80" spans="2:15">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B80" s="76"/>
       <c r="E80" s="70">
         <v>40</v>
       </c>
       <c r="F80" s="70" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G80" s="70" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N80" s="77"/>
       <c r="O80" s="77"/>
     </row>
-    <row r="81" spans="2:15">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B81" s="76"/>
       <c r="E81" s="70">
         <v>3</v>
       </c>
       <c r="F81" s="70" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G81" s="70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N81" s="77"/>
       <c r="O81" s="77"/>
     </row>
-    <row r="82" spans="2:15">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B82" s="76"/>
       <c r="N82" s="77"/>
       <c r="O82" s="77"/>
     </row>
-    <row r="83" spans="2:15">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B83" s="76"/>
       <c r="N83" s="77"/>
       <c r="O83" s="77"/>
     </row>
-    <row r="84" spans="2:15">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B84" s="76"/>
       <c r="N84" s="77"/>
       <c r="O84" s="77"/>
     </row>
-    <row r="85" spans="2:15">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B85" s="76"/>
       <c r="N85" s="77"/>
       <c r="O85" s="77"/>
     </row>
-    <row r="86" spans="2:15">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B86" s="76"/>
       <c r="N86" s="77"/>
       <c r="O86" s="77"/>
     </row>
-    <row r="87" spans="2:15">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B87" s="76"/>
       <c r="N87" s="77"/>
       <c r="O87" s="77"/>
     </row>
-    <row r="88" spans="2:15">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B88" s="76"/>
       <c r="N88" s="77"/>
       <c r="O88" s="77"/>
     </row>
-    <row r="89" spans="2:15">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B89" s="76"/>
       <c r="N89" s="77"/>
       <c r="O89" s="77"/>
     </row>
-    <row r="90" spans="2:15">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B90" s="76"/>
       <c r="N90" s="77"/>
       <c r="O90" s="77"/>
     </row>
-    <row r="91" spans="2:15">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B91" s="76"/>
       <c r="N91" s="77"/>
       <c r="O91" s="77"/>
     </row>
-    <row r="92" spans="2:15">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B92" s="76"/>
       <c r="N92" s="77"/>
       <c r="O92" s="77"/>
     </row>
-    <row r="93" spans="2:15">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B93" s="76"/>
       <c r="N93" s="77"/>
       <c r="O93" s="77"/>
     </row>
-    <row r="94" spans="2:15">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B94" s="76"/>
       <c r="N94" s="77"/>
       <c r="O94" s="77"/>
     </row>
-    <row r="95" spans="2:15">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B95" s="76"/>
       <c r="E95" s="70">
         <v>10</v>
       </c>
       <c r="F95" s="70" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G95" s="70" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N95" s="77"/>
       <c r="O95" s="77"/>
     </row>
-    <row r="96" spans="2:15">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B96" s="76"/>
       <c r="E96" s="70">
         <f>E95/100</f>
         <v>0.1</v>
       </c>
       <c r="G96" s="70" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N96" s="77"/>
       <c r="O96" s="77"/>
     </row>
-    <row r="97" spans="2:15">
+    <row r="97" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B97" s="76"/>
       <c r="N97" s="77"/>
       <c r="O97" s="77"/>
     </row>
-    <row r="98" spans="2:15">
+    <row r="98" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B98" s="76"/>
       <c r="N98" s="77"/>
       <c r="O98" s="77"/>
     </row>
-    <row r="99" spans="2:15">
+    <row r="99" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B99" s="76"/>
       <c r="N99" s="77"/>
       <c r="O99" s="77"/>
     </row>
-    <row r="100" spans="2:15">
+    <row r="100" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B100" s="76"/>
       <c r="N100" s="77"/>
       <c r="O100" s="77"/>
     </row>
-    <row r="101" spans="2:15">
+    <row r="101" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B101" s="76"/>
       <c r="N101" s="77"/>
       <c r="O101" s="77"/>
     </row>
-    <row r="102" spans="2:15">
+    <row r="102" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B102" s="76"/>
       <c r="N102" s="77"/>
       <c r="O102" s="77"/>
     </row>
-    <row r="103" spans="2:15">
+    <row r="103" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B103" s="76"/>
       <c r="N103" s="77"/>
       <c r="O103" s="77"/>
     </row>
-    <row r="104" spans="2:15">
+    <row r="104" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B104" s="76"/>
       <c r="N104" s="77"/>
       <c r="O104" s="77"/>
     </row>
-    <row r="105" spans="2:15">
+    <row r="105" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B105" s="76"/>
       <c r="N105" s="77"/>
       <c r="O105" s="77"/>
     </row>
-    <row r="106" spans="2:15">
+    <row r="106" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B106" s="76"/>
       <c r="N106" s="77"/>
       <c r="O106" s="77"/>
     </row>
-    <row r="107" spans="2:15">
+    <row r="107" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B107" s="76"/>
       <c r="N107" s="77"/>
       <c r="O107" s="77"/>
     </row>
-    <row r="108" spans="2:15">
+    <row r="108" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B108" s="76"/>
       <c r="N108" s="77"/>
       <c r="O108" s="77"/>
     </row>
-    <row r="109" spans="2:15">
+    <row r="109" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B109" s="76"/>
       <c r="N109" s="77"/>
       <c r="O109" s="77"/>
     </row>
-    <row r="110" spans="2:15">
+    <row r="110" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B110" s="76"/>
       <c r="N110" s="77"/>
       <c r="O110" s="77"/>
     </row>
-    <row r="111" spans="2:15">
+    <row r="111" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B111" s="76"/>
       <c r="N111" s="77"/>
       <c r="O111" s="77"/>
     </row>
-    <row r="112" spans="2:15">
+    <row r="112" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B112" s="76"/>
       <c r="N112" s="77"/>
       <c r="O112" s="77"/>
     </row>
-    <row r="113" spans="2:15">
+    <row r="113" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B113" s="76"/>
       <c r="N113" s="77"/>
       <c r="O113" s="77"/>
     </row>
-    <row r="114" spans="2:15">
+    <row r="114" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B114" s="76"/>
       <c r="N114" s="77"/>
       <c r="O114" s="77"/>
     </row>
-    <row r="115" spans="2:15">
+    <row r="115" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B115" s="76"/>
       <c r="N115" s="77"/>
       <c r="O115" s="77"/>
     </row>
-    <row r="116" spans="2:15">
+    <row r="116" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B116" s="76"/>
       <c r="N116" s="77"/>
       <c r="O116" s="77"/>
     </row>
-    <row r="117" spans="2:15">
+    <row r="117" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B117" s="76"/>
       <c r="N117" s="77"/>
       <c r="O117" s="77"/>
     </row>
-    <row r="118" spans="2:15">
+    <row r="118" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B118" s="76"/>
       <c r="N118" s="77"/>
       <c r="O118" s="77"/>
     </row>
-    <row r="119" spans="2:15">
+    <row r="119" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B119" s="76"/>
       <c r="N119" s="77"/>
       <c r="O119" s="77"/>
     </row>
-    <row r="120" spans="2:15">
+    <row r="120" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B120" s="76"/>
       <c r="N120" s="77"/>
       <c r="O120" s="77"/>
     </row>
-    <row r="121" spans="2:15">
+    <row r="121" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B121" s="76"/>
       <c r="N121" s="77"/>
       <c r="O121" s="77"/>
     </row>
-    <row r="122" spans="2:15">
+    <row r="122" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B122" s="76"/>
       <c r="N122" s="77"/>
       <c r="O122" s="77"/>
     </row>
-    <row r="123" spans="2:15">
+    <row r="123" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B123" s="76"/>
       <c r="N123" s="77"/>
       <c r="O123" s="77"/>
     </row>
-    <row r="124" spans="2:15">
+    <row r="124" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B124" s="76"/>
     </row>
-    <row r="125" spans="2:15">
+    <row r="125" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B125" s="76"/>
     </row>
-    <row r="126" spans="2:15">
+    <row r="126" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B126" s="76"/>
     </row>
-    <row r="127" spans="2:15">
+    <row r="127" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B127" s="76"/>
     </row>
-    <row r="128" spans="2:15">
+    <row r="128" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B128" s="76"/>
     </row>
-    <row r="129" spans="2:7">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B129" s="76"/>
       <c r="E129" s="70">
         <v>292913979</v>
       </c>
       <c r="F129" s="70" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G129" s="70" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="130" spans="2:7">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B130" s="76"/>
       <c r="E130" s="70">
         <f>E129/E43</f>
@@ -6952,10 +6813,10 @@
         <v>20</v>
       </c>
       <c r="G130" s="70" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="131" spans="2:7">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B131" s="76"/>
       <c r="E131" s="70">
         <f>E130*E96</f>
@@ -6965,68 +6826,68 @@
         <v>20</v>
       </c>
       <c r="G131" s="70" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="132" spans="2:7">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B132" s="76"/>
     </row>
-    <row r="133" spans="2:7">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B133" s="76"/>
     </row>
-    <row r="134" spans="2:7">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B134" s="76"/>
     </row>
-    <row r="135" spans="2:7">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B135" s="76"/>
       <c r="E135" s="70">
         <v>50</v>
       </c>
       <c r="F135" s="70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G135" s="70" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="136" spans="2:7">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B136" s="76"/>
       <c r="E136" s="70">
         <f>E135*0.00404686</f>
         <v>0.20234300000000002</v>
       </c>
       <c r="F136" s="70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G136" s="70" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="137" spans="2:7">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B137" s="76"/>
     </row>
-    <row r="138" spans="2:7">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B138" s="76"/>
     </row>
-    <row r="139" spans="2:7">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B139" s="76"/>
     </row>
-    <row r="140" spans="2:7">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B140" s="76"/>
     </row>
-    <row r="141" spans="2:7">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B141" s="76"/>
       <c r="E141" s="70">
         <v>158118579</v>
       </c>
       <c r="F141" s="70" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G141" s="70" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="142" spans="2:7">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B142" s="76"/>
       <c r="E142" s="70">
         <f>E141/E43</f>
@@ -7036,148 +6897,148 @@
         <v>20</v>
       </c>
       <c r="G142" s="70" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="143" spans="2:7">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B143" s="76"/>
     </row>
-    <row r="144" spans="2:7">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B144" s="76"/>
       <c r="G144" s="70" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="145" spans="2:7">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B145" s="76"/>
       <c r="G145" s="70" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="146" spans="2:7">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B146" s="76"/>
     </row>
-    <row r="147" spans="2:7">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B147" s="76"/>
     </row>
-    <row r="148" spans="2:7">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B148" s="76"/>
     </row>
-    <row r="149" spans="2:7">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B149" s="76"/>
     </row>
-    <row r="150" spans="2:7">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B150" s="76"/>
     </row>
-    <row r="151" spans="2:7">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B151" s="76"/>
     </row>
-    <row r="152" spans="2:7">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B152" s="76"/>
     </row>
-    <row r="153" spans="2:7">
+    <row r="153" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B153" s="76"/>
     </row>
-    <row r="154" spans="2:7">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B154" s="76"/>
     </row>
-    <row r="163" spans="5:7">
+    <row r="163" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E163" s="70">
         <v>10449181</v>
       </c>
       <c r="F163" s="70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G163" s="70" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="164" spans="5:7">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="164" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E164" s="70">
         <f>E163/E43</f>
         <v>9516558.2877959926</v>
       </c>
       <c r="F164" s="70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G164" s="70" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="189" spans="11:11">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="189" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K189" s="77"/>
     </row>
-    <row r="190" spans="11:11">
+    <row r="190" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K190" s="77"/>
     </row>
-    <row r="191" spans="11:11">
+    <row r="191" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K191" s="77"/>
     </row>
-    <row r="214" spans="5:7">
+    <row r="214" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E214" s="70">
         <f>138000+7430000+1274000+775000</f>
         <v>9617000</v>
       </c>
       <c r="F214" s="70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G214" s="70" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="215" spans="5:7">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="215" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E215" s="70">
         <f>E214/E43</f>
         <v>8758652.0947176684</v>
       </c>
       <c r="F215" s="70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G215" s="70" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="216" spans="5:7">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="216" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G216" s="70" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="218" spans="5:7">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="218" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E218" s="70">
         <f>E215/E75</f>
         <v>1.4301001459934731E-3</v>
       </c>
       <c r="F218" s="70" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G218" s="70" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="219" spans="5:7">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="219" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E219" s="70">
         <f>E215/E67</f>
         <v>1110.9401439266449</v>
       </c>
       <c r="F219" s="70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G219" s="70" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="242" spans="5:7">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="242" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E242" s="70">
         <v>96755555</v>
       </c>
       <c r="F242" s="70" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G242" s="70" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="243" spans="5:7">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="243" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E243" s="70">
         <f>E242/E43</f>
         <v>88119813.296903461</v>
@@ -7186,38 +7047,38 @@
         <v>20</v>
       </c>
       <c r="G243" s="70" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="250" spans="5:7">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="250" spans="5:7" x14ac:dyDescent="0.2">
       <c r="F250" s="70" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="257" spans="5:7">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="257" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E257" s="70">
         <v>2880770</v>
       </c>
       <c r="F257" s="70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G257" s="70" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="258" spans="5:7">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="258" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E258" s="70">
         <f>E257/E43</f>
         <v>2623652.0947176684</v>
       </c>
       <c r="F258" s="70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G258" s="70" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="269" spans="5:7">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="269" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E269" s="70">
         <v>0.9</v>
       </c>
@@ -7225,19 +7086,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="270" spans="5:7">
+    <row r="270" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G270" s="70" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>